--- a/DesignDocs/Design/발주 문서/0811-2017_세계관 통합 문서.xlsx
+++ b/DesignDocs/Design/발주 문서/0811-2017_세계관 통합 문서.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\Design\발주 문서\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6BBB74-5B13-4B08-9FA3-7F309F3954CF}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" firstSheet="5" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" firstSheet="5" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Log" sheetId="1" r:id="rId1"/>
@@ -44,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="284">
   <si>
     <t>작성일</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -654,19 +660,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>- 전체적으로 녹슨 파이프가 많이 보이며 인간,수인들의 삶의 질이 높지 않다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>* 빈민촌</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>- 원래는 다른 지역에서 사용하고 남은 폐자원을 모아두는 그물망이 고철장의 기원이다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 그물망 지역은 쓰레기장과 같은 역할을 하고 있었으나 모여드는 쓰레기와 고철의 양이 늘어나 현재는 사람이 살 수 있을 정도의 얇은 빙하 같은 구조가 형성되어 버려진 인간들과 수인들이 살고 있다. 간혹 고철이 벌어진 틈이 크레바스처럼 생겨나 순식간에 사람이 사라지는 일도 왕왕 존재한다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1058,38 +1056,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>출입구에서</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 군인들이 철저하게 출입을 통제하기 때문에, 필요 인원(관리자들, 노동자 주로 쥐 수인) 이외에는 거의 출입 자체가 불가능하다.</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 초기에는 고철장으로 불렸으나, 인간과 수인의 혼혈인 아너킹이 이곳에 버려져서 살아남은 이후 아너킹의 고철장이라고 불리고 있다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>- 시간에 따라 타 구역 전체가 그늘이 질 만큼 커다란 증기 굴뚝이 주요한 랜드마크이다. 이 증기 굴뚝의 아래쪽은 인간이 관리하지만, 위쪽은 새 수인들이 관리한다. 본래 위쪽도 인간이 관리 하였지만 떨어져 죽는 사람이 많아 증기 굴뚝이 막혀 방주가 추락할 뻔 한 사건이 있었다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1316,15 +1282,71 @@
     <t>3-10. 쓰레기장</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>* 돈 시나</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 인물</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>출입구에서 군인들이 철저하게 출입을 통제하기 때문에, 필요 인원(관리자들, 노동자 주로 쥐 수인) 이외에는 거의 출입 자체가 불가능하다.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 전체적으로 녹슨 파이프가 많이 보이며 삶의 질이 높지 않다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 초기에는 고철장으로 불렸으나, 아너킹이 이곳에 버려져서 살아남은 이후 아너킹의 고철장이라고 불리고 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 그물망 지역은 쓰레기장과 같은 역할을 하고 있었으나 모여드는 쓰레기와 고철의 양이 늘어나 현재는 사람이 살 수 있을 정도의 얇은 빙하 같은 구조가 형성되어 버려진 수인들이 살고 있다. 간혹 고철이 벌어진 틈이 크레바스처럼 생겨나 순식간에 사람이 사라지는 일도 왕왕 존재한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 에일리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 블룸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 투기장 최고의 스타 돈시나는 평생을 방주의 엔터테이너로써 살아왔다. 인기가 높아져 갈수록 그는 점점 거만해져 갔고 결국 훈련 도중에 사고로 왕족을 죽이고 만다. 그 일로 인해 돈 시나는 모든 부와 명예를 빼앗기게 되며 고철장으로 추방당하게 되었다. 그러나 돈 시나는 현실을 받아들이지 못하고 억누를 수 없는 증오를 무차별적인 폭력으로 풀어내게 되었다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 아너킹의 고철장 개발부 장관으로 파견</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 블룸의 개인 경호원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1458,8 +1480,30 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1496,6 +1540,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1514,7 +1564,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1626,14 +1676,32 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1678,7 +1746,7 @@
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1722,7 +1790,7 @@
         <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2006,21 +2074,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="1.5" customWidth="1"/>
     <col min="2" max="2" width="16.125" customWidth="1"/>
@@ -2028,8 +2096,8 @@
     <col min="4" max="4" width="34.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:4" ht="6.75" customHeight="1"/>
+    <row r="2" spans="2:4">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2040,7 +2108,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4">
       <c r="B3" s="3">
         <v>42907</v>
       </c>
@@ -2051,7 +2119,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4">
       <c r="B4" s="3">
         <v>42936</v>
       </c>
@@ -2062,26 +2130,26 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4">
       <c r="B5" s="3">
         <v>42960</v>
       </c>
       <c r="C5" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D5" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
       <c r="B6" s="3">
         <v>42964</v>
       </c>
       <c r="C6" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D6" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -2092,126 +2160,126 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="1.75" style="5" customWidth="1"/>
     <col min="2" max="2" width="90.25" style="5" customWidth="1"/>
     <col min="3" max="3" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:2" ht="11.25" customHeight="1"/>
+    <row r="2" spans="2:2">
       <c r="B2" s="26" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="2:2" ht="7.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:2" ht="7.35" customHeight="1"/>
+    <row r="4" spans="2:2">
       <c r="B4" s="27" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="2:2" s="5" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:2" s="5" customFormat="1" ht="7.35" customHeight="1">
       <c r="B5" s="28"/>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:2">
       <c r="B6" s="21" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="2:2" ht="7.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:2" ht="7.35" customHeight="1">
       <c r="B7" s="21"/>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:2">
       <c r="B8" s="22" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="2:2" ht="7.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:2" ht="7.35" customHeight="1">
       <c r="B9" s="22"/>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:2">
       <c r="B10" s="22" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" ht="7.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" ht="7.35" customHeight="1"/>
+    <row r="12" spans="2:2">
       <c r="B12" s="27" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="2:2" ht="7.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:2" ht="7.35" customHeight="1">
       <c r="B13" s="10"/>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:2">
       <c r="B14" s="29" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="2:2" ht="7.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:2" ht="7.35" customHeight="1">
       <c r="B15" s="10"/>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:2">
       <c r="B16" s="21" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="21" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="21" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="21" t="s">
+    <row r="19" spans="2:2">
+      <c r="B19" s="21" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="21" t="s">
+    <row r="20" spans="2:2">
+      <c r="B20" s="21" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" s="21" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="21" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2">
       <c r="B21" s="10"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2">
       <c r="B22" s="36"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2">
       <c r="B23" s="10"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2">
       <c r="B24" s="10"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2">
       <c r="B25" s="10"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2">
       <c r="B26" s="10"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2">
       <c r="B27" s="10"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2">
       <c r="B28" s="10"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2">
       <c r="B29" s="36"/>
     </row>
-    <row r="30" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="2:2" s="5" customFormat="1"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2219,70 +2287,70 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="1.75" style="5" customWidth="1"/>
     <col min="2" max="2" width="90.25" style="5" customWidth="1"/>
     <col min="3" max="3" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="11.25" customHeight="1"/>
+    <row r="2" spans="1:2">
       <c r="B2" s="26" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="7.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="7.35" customHeight="1"/>
+    <row r="4" spans="1:2">
       <c r="B4" s="27" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="5" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" s="5" customFormat="1" ht="7.35" customHeight="1">
       <c r="B5" s="28"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="B6" s="21" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="7.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="7.35" customHeight="1">
       <c r="B7" s="21"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2">
       <c r="B8" s="22" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="7.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="7.35" customHeight="1">
       <c r="B9" s="22"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2">
       <c r="B10" s="22" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="7.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="7.35" customHeight="1"/>
+    <row r="12" spans="1:2">
       <c r="B12" s="22" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="7.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="7.35" customHeight="1"/>
+    <row r="14" spans="1:2">
       <c r="B14" s="22" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="7.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="7.35" customHeight="1"/>
+    <row r="16" spans="1:2">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
@@ -2290,110 +2358,110 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="7.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" ht="7.35" customHeight="1">
       <c r="B17" s="10"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2">
       <c r="B18" s="29" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="6.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" ht="6.75" customHeight="1"/>
+    <row r="20" spans="2:2">
       <c r="B20" s="22" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="22" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="22" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="22" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" s="22" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22" s="22" t="s">
+    <row r="24" spans="2:2">
+      <c r="B24" s="22" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="31"/>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="29" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B23" s="22" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B24" s="22" t="s">
+    <row r="27" spans="2:2" ht="6.75" customHeight="1">
+      <c r="B27" s="31"/>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="22" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="22" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B25" s="31"/>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B26" s="29" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="31"/>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B28" s="22" t="s">
+    <row r="30" spans="2:2">
+      <c r="B30" s="22" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B29" s="22" t="s">
+    <row r="31" spans="2:2">
+      <c r="B31" s="22" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B30" s="22" t="s">
+    <row r="32" spans="2:2">
+      <c r="B32" s="22" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B31" s="22" t="s">
+    <row r="33" spans="2:2">
+      <c r="B33" s="31"/>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="29" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B32" s="22" t="s">
+    <row r="35" spans="2:2" ht="6.75" customHeight="1">
+      <c r="B35" s="31"/>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="22" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B33" s="31"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B34" s="29" t="s">
+    <row r="37" spans="2:2">
+      <c r="B37" s="22" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="35" spans="2:2" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="31"/>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B36" s="22" t="s">
+    <row r="38" spans="2:2">
+      <c r="B38" s="22" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B37" s="22" t="s">
+    <row r="39" spans="2:2">
+      <c r="B39" s="22" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B38" s="22" t="s">
+    <row r="40" spans="2:2">
+      <c r="B40" s="22" t="s">
         <v>189</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B39" s="22" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B40" s="22" t="s">
-        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -2403,158 +2471,158 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="1.75" style="5" customWidth="1"/>
     <col min="2" max="2" width="90.25" style="5" customWidth="1"/>
     <col min="3" max="3" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:2" ht="11.25" customHeight="1"/>
+    <row r="2" spans="2:2">
       <c r="B2" s="26" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" ht="7.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" ht="7.35" customHeight="1"/>
+    <row r="4" spans="2:2">
       <c r="B4" s="27" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="2:2" s="5" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:2" s="5" customFormat="1" ht="7.35" customHeight="1">
       <c r="B5" s="28"/>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:2">
       <c r="B6" s="21" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="2:2" ht="7.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:2" ht="7.35" customHeight="1">
       <c r="B7" s="21"/>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:2">
       <c r="B8" s="22" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="2:2" ht="7.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:2" ht="7.35" customHeight="1">
       <c r="B9" s="22"/>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:2">
       <c r="B10" s="22" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="2:2" ht="7.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:2" ht="7.35" customHeight="1"/>
+    <row r="12" spans="2:2">
       <c r="B12" s="22" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="2:2" ht="7.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:2" ht="7.35" customHeight="1"/>
+    <row r="14" spans="2:2">
       <c r="B14" s="27" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="2:2" ht="7.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:2" ht="7.35" customHeight="1">
       <c r="B15" s="10"/>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:2">
       <c r="B16" s="29" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2">
       <c r="B17" s="21" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="21" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="21" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="21" t="s">
+    <row r="20" spans="2:2">
+      <c r="B20" s="21" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" s="21" t="s">
+    <row r="21" spans="2:2">
+      <c r="B21" s="10"/>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="29" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="21" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="21" t="s">
+    <row r="24" spans="2:2">
+      <c r="B24" s="21" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" s="10"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22" s="29" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B23" s="21" t="s">
+    <row r="25" spans="2:2">
+      <c r="B25" s="37" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="10"/>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="29" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="21" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B24" s="21" t="s">
+    <row r="29" spans="2:2">
+      <c r="B29" s="21" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B25" s="38" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B26" s="10"/>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B27" s="29" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B28" s="21" t="s">
+    <row r="30" spans="2:2">
+      <c r="B30" s="21" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B29" s="21" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B30" s="21" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2">
       <c r="B31" s="10"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2">
       <c r="B32" s="10"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2">
       <c r="B33" s="10"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2">
       <c r="B34" s="10"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2">
       <c r="B35" s="10"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2">
       <c r="B36" s="10"/>
     </row>
   </sheetData>
@@ -2565,7 +2633,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF61F339"/>
   </sheetPr>
@@ -2575,7 +2643,7 @@
       <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2583,144 +2651,144 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="1.75" style="5" customWidth="1"/>
     <col min="2" max="2" width="90.25" style="5" customWidth="1"/>
     <col min="3" max="3" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:2" ht="11.25" customHeight="1"/>
+    <row r="2" spans="2:2">
       <c r="B2" s="26" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" ht="7.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" ht="7.35" customHeight="1"/>
+    <row r="4" spans="2:2">
       <c r="B4" s="27" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="2:2" s="5" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:2" s="5" customFormat="1" ht="7.35" customHeight="1">
       <c r="B5" s="28"/>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:2">
       <c r="B6" s="22" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" ht="7.35" customHeight="1" x14ac:dyDescent="0.3">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" ht="7.35" customHeight="1">
       <c r="B7" s="31"/>
     </row>
-    <row r="8" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:2" ht="15" customHeight="1">
       <c r="B8" s="22" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" ht="7.35" customHeight="1" x14ac:dyDescent="0.3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" ht="7.35" customHeight="1">
       <c r="B9" s="31"/>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:2">
       <c r="B10" s="22" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" ht="7.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" ht="7.35" customHeight="1"/>
+    <row r="12" spans="2:2">
       <c r="B12" s="27" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="2:2" ht="7.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:2" ht="7.35" customHeight="1">
       <c r="B13" s="10"/>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:2">
       <c r="B14" s="29" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2" ht="7.35" customHeight="1" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" ht="7.35" customHeight="1">
       <c r="B15" s="10"/>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:2">
       <c r="B16" s="21" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="4.5" customHeight="1">
       <c r="B17" s="21"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2">
       <c r="B18" s="22" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" ht="4.5" customHeight="1">
       <c r="B19" s="22"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2">
       <c r="B20" s="22" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="5.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:2" ht="24" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" ht="5.25" customHeight="1"/>
+    <row r="22" spans="2:2" ht="24">
       <c r="B22" s="12" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="2:2" ht="3.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" ht="3.75" customHeight="1">
       <c r="B23" s="22"/>
     </row>
-    <row r="24" spans="2:2" ht="48" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" ht="48">
       <c r="B24" s="12" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="25" spans="2:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" ht="11.25" customHeight="1">
       <c r="B25" s="10"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2">
       <c r="B26" s="29" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" ht="3.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" ht="3.75" customHeight="1">
       <c r="B27" s="10"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2">
       <c r="B28" s="21" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="29" spans="2:2" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2" ht="3" customHeight="1">
       <c r="B29" s="21"/>
     </row>
-    <row r="30" spans="2:2" s="5" customFormat="1" ht="36" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2" s="5" customFormat="1" ht="36">
       <c r="B30" s="12" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" ht="5.25" customHeight="1">
       <c r="B31" s="22"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2">
       <c r="B32" s="22" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" ht="4.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" ht="4.5" customHeight="1"/>
+    <row r="34" spans="2:2">
       <c r="B34" s="22" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -2730,166 +2798,166 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="1.75" style="5" customWidth="1"/>
     <col min="2" max="2" width="90.25" style="5" customWidth="1"/>
     <col min="3" max="3" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:2" ht="11.25" customHeight="1"/>
+    <row r="2" spans="2:2">
       <c r="B2" s="26" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" ht="7.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" ht="7.35" customHeight="1"/>
+    <row r="4" spans="2:2">
       <c r="B4" s="27" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="2:2" s="5" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:2" s="5" customFormat="1" ht="6.75" customHeight="1">
       <c r="B5" s="28"/>
     </row>
-    <row r="6" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:2" s="5" customFormat="1">
       <c r="B6" s="22" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" ht="5.25" customHeight="1">
       <c r="B7" s="35"/>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:2">
       <c r="B8" s="32" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" s="5" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" s="5" customFormat="1" ht="7.35" customHeight="1">
       <c r="B9" s="28"/>
     </row>
-    <row r="10" spans="2:2" ht="60" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:2" ht="60">
       <c r="B10" s="12" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="2:2" ht="7.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:2" ht="7.35" customHeight="1"/>
+    <row r="12" spans="2:2">
       <c r="B12" s="27" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="2:2" ht="7.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:2" ht="7.35" customHeight="1">
       <c r="B13" s="10"/>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:2">
       <c r="B14" s="29" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2" ht="7.35" customHeight="1" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" ht="7.35" customHeight="1">
       <c r="B15" s="28"/>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:2">
       <c r="B16" s="21" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" ht="6" customHeight="1">
       <c r="B17" s="21"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2">
       <c r="B18" s="22" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" ht="5.25" customHeight="1">
       <c r="B19" s="22"/>
     </row>
-    <row r="20" spans="2:2" ht="24" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" ht="24">
       <c r="B20" s="12" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" ht="7.5" customHeight="1">
       <c r="B21" s="10"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2">
       <c r="B22" s="29" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" ht="6.75" customHeight="1">
       <c r="B23" s="10"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2">
       <c r="B24" s="21" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" ht="3.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" ht="3.75" customHeight="1">
       <c r="B25" s="21"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2">
       <c r="B26" s="22" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="27" spans="2:2" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" ht="4.5" customHeight="1">
       <c r="B27" s="22"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2">
       <c r="B28" s="22" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="2:2" ht="4.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2" ht="4.5" customHeight="1"/>
+    <row r="30" spans="2:2" s="5" customFormat="1">
       <c r="B30" s="22" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="2:2" ht="7.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2" ht="7.5" customHeight="1"/>
+    <row r="32" spans="2:2">
       <c r="B32" s="29" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" ht="6.75" customHeight="1"/>
+    <row r="34" spans="2:2">
+      <c r="B34" s="37" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" ht="24">
+      <c r="B35" s="33" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="38" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="33" spans="2:2" ht="6.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B34" s="38" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" ht="24" x14ac:dyDescent="0.3">
-      <c r="B35" s="33" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B36" s="39" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" ht="24" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" ht="24">
       <c r="B37" s="33" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
       <c r="B38" s="31"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2">
       <c r="B39" s="31"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2">
       <c r="B40" s="31"/>
     </row>
   </sheetData>
@@ -2900,140 +2968,140 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="1.75" style="5" customWidth="1"/>
     <col min="2" max="2" width="90.25" style="5" customWidth="1"/>
     <col min="3" max="3" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:2" ht="11.25" customHeight="1"/>
+    <row r="2" spans="2:2">
       <c r="B2" s="26" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" ht="7.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" ht="7.35" customHeight="1"/>
+    <row r="4" spans="2:2">
       <c r="B4" s="27" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="2:2" s="5" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:2" s="5" customFormat="1" ht="7.35" customHeight="1">
       <c r="B5" s="28"/>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:2">
       <c r="B6" s="21" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="2:2" ht="7.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:2" ht="7.35" customHeight="1">
       <c r="B7" s="21"/>
     </row>
-    <row r="8" spans="2:2" ht="24" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:2" ht="24">
       <c r="B8" s="12" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="9" spans="2:2" ht="7.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:2" ht="7.35" customHeight="1">
       <c r="B9" s="22"/>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:2">
       <c r="B10" s="12" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" ht="7.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" ht="7.35" customHeight="1"/>
+    <row r="12" spans="2:2">
       <c r="B12" s="27" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="2:2" ht="7.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:2" ht="7.35" customHeight="1">
       <c r="B13" s="10"/>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:2">
       <c r="B14" s="29" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="2:2" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:2" ht="4.5" customHeight="1">
       <c r="B15" s="10"/>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:2">
       <c r="B16" s="21" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="21" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="8.25" customHeight="1">
+      <c r="B18" s="10"/>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="29" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" ht="4.5" customHeight="1">
+      <c r="B20" s="10"/>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="21" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="21" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="21" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="21" t="s">
+    <row r="24" spans="2:2" ht="7.5" customHeight="1">
+      <c r="B24" s="10"/>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="29" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" ht="4.5" customHeight="1">
+      <c r="B26" s="10"/>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="21" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="10"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" s="29" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="10"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" s="21" t="s">
+    <row r="28" spans="2:2">
+      <c r="B28" s="21" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22" s="21" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B23" s="21" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="10"/>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B25" s="29" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="10"/>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B27" s="21" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B28" s="21" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2">
       <c r="B29" s="10"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2">
       <c r="B30" s="10"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2">
       <c r="B31" s="10"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2">
       <c r="B32" s="10"/>
     </row>
   </sheetData>
@@ -3044,135 +3112,135 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="1.75" style="5" customWidth="1"/>
     <col min="2" max="2" width="90.25" style="5" customWidth="1"/>
     <col min="3" max="3" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:2" ht="11.25" customHeight="1"/>
+    <row r="2" spans="2:2">
       <c r="B2" s="30" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
       <c r="B4" s="27" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="2:2" s="5" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:2" s="5" customFormat="1" ht="7.35" customHeight="1">
       <c r="B5" s="28"/>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:2">
       <c r="B6" s="21" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" ht="7.35" customHeight="1" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" ht="7.35" customHeight="1">
       <c r="B7" s="21"/>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:2">
       <c r="B8" s="12" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" ht="7.35" customHeight="1" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" ht="7.35" customHeight="1">
       <c r="B9" s="22"/>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:2">
       <c r="B10" s="22" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" ht="7.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" ht="7.35" customHeight="1"/>
+    <row r="12" spans="2:2">
       <c r="B12" s="27" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="2:2" ht="7.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:2" ht="7.35" customHeight="1">
       <c r="B13" s="10"/>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:2">
       <c r="B14" s="29" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2" ht="5.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" ht="5.25" customHeight="1"/>
+    <row r="16" spans="2:2">
       <c r="B16" s="21" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="21" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="21" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="6" customHeight="1">
+      <c r="B19" s="10"/>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="29" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" ht="3.75" customHeight="1"/>
+    <row r="22" spans="2:2">
+      <c r="B22" s="21" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="21" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="21" t="s">
+    <row r="24" spans="2:2">
+      <c r="B24" s="21" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="21" t="s">
+    <row r="25" spans="2:2" ht="5.25" customHeight="1">
+      <c r="B25" s="10"/>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="29" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" ht="4.5" customHeight="1"/>
+    <row r="28" spans="2:2">
+      <c r="B28" s="21" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="10"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="29" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" ht="3.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22" s="21" t="s">
+    <row r="29" spans="2:2">
+      <c r="B29" s="21" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B23" s="21" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B24" s="21" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="10"/>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B26" s="29" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" ht="4.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B28" s="21" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B29" s="21" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2">
       <c r="B30" s="10"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2">
       <c r="B31" s="10"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2">
       <c r="B32" s="10"/>
     </row>
   </sheetData>
@@ -3183,157 +3251,218 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+  <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="1.75" style="5" customWidth="1"/>
     <col min="2" max="2" width="90.25" style="5" customWidth="1"/>
     <col min="3" max="3" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:2" ht="11.25" customHeight="1"/>
+    <row r="2" spans="2:2">
       <c r="B2" s="26" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" ht="7.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" ht="7.35" customHeight="1"/>
+    <row r="4" spans="2:2">
       <c r="B4" s="27" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="2:2" s="5" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:2" s="5" customFormat="1" ht="7.35" customHeight="1">
       <c r="B5" s="28"/>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:2">
       <c r="B6" s="21" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" ht="7.35" customHeight="1" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" ht="7.35" customHeight="1">
       <c r="B7" s="21"/>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:2">
       <c r="B8" s="12" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" ht="7.35" customHeight="1" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" ht="7.35" customHeight="1">
       <c r="B9" s="22"/>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:2">
       <c r="B10" s="22" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" ht="7.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" ht="7.35" customHeight="1"/>
+    <row r="12" spans="2:2">
       <c r="B12" s="27" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="2:2" ht="7.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:2" ht="7.35" customHeight="1">
       <c r="B13" s="10"/>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:2">
       <c r="B14" s="29" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2" ht="7.35" customHeight="1" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" ht="7.35" customHeight="1">
       <c r="B15" s="10"/>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:2">
       <c r="B16" s="21" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="5.25" customHeight="1">
+      <c r="B17" s="21"/>
+    </row>
+    <row r="18" spans="2:2" ht="36">
+      <c r="B18" s="45" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="5.25" customHeight="1">
+      <c r="B19" s="22"/>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="22" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" ht="3.75" customHeight="1"/>
+    <row r="22" spans="2:2">
+      <c r="B22" s="22" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="21"/>
-    </row>
-    <row r="18" spans="2:2" ht="36" x14ac:dyDescent="0.3">
-      <c r="B18" s="12" t="s">
+    <row r="23" spans="2:2" ht="3" customHeight="1"/>
+    <row r="24" spans="2:2">
+      <c r="B24" s="22" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="22"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="22" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" ht="3.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22" s="22" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" ht="3" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B24" s="22" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2">
       <c r="B25" s="10"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2">
       <c r="B26" s="29" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" ht="6" customHeight="1">
       <c r="B27" s="10"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2">
       <c r="B28" s="21" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="29" spans="2:2" ht="3.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2" ht="3.75" customHeight="1">
       <c r="B29" s="21"/>
     </row>
-    <row r="30" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2" s="5" customFormat="1">
       <c r="B30" s="22" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="31" spans="2:2" ht="3.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2" ht="3.75" customHeight="1">
       <c r="B31" s="22"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B32" s="22" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" ht="3.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2">
+      <c r="B32" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" ht="3.75" customHeight="1"/>
+    <row r="34" spans="2:3">
       <c r="B34" s="22" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B35" s="37" t="s">
-        <v>225</v>
-      </c>
+        <v>221</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" s="43" t="s">
+        <v>275</v>
+      </c>
+      <c r="C35" s="41"/>
+    </row>
+    <row r="36" spans="2:3" ht="3.75" customHeight="1">
+      <c r="B36" s="21"/>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="B37" s="40" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" ht="3.75" customHeight="1">
+      <c r="B38" s="21"/>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="B39" s="39" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" ht="3.75" customHeight="1">
+      <c r="B40" s="21"/>
+    </row>
+    <row r="41" spans="2:3" ht="36">
+      <c r="B41" s="42" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" ht="3.75" customHeight="1">
+      <c r="B42" s="21"/>
+    </row>
+    <row r="43" spans="2:3">
+      <c r="B43" s="39" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" ht="3.75" customHeight="1">
+      <c r="B44" s="21"/>
+    </row>
+    <row r="45" spans="2:3">
+      <c r="B45" s="21" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" ht="3.75" customHeight="1">
+      <c r="B46" s="21"/>
+    </row>
+    <row r="47" spans="2:3">
+      <c r="B47" s="39" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" ht="3.75" customHeight="1">
+      <c r="B48" s="21"/>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="22" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <sheetPr>
     <tabColor rgb="FF61F339"/>
   </sheetPr>
@@ -3343,7 +3472,7 @@
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3351,14 +3480,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="1.625" customWidth="1"/>
     <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
@@ -3366,8 +3495,8 @@
     <col min="5" max="5" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:5" ht="8.25" customHeight="1"/>
+    <row r="2" spans="2:5">
       <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
@@ -3381,7 +3510,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5">
       <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
@@ -3392,7 +3521,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5">
       <c r="B4" s="7" t="s">
         <v>10</v>
       </c>
@@ -3406,7 +3535,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5">
       <c r="B5" s="7" t="s">
         <v>11</v>
       </c>
@@ -3418,7 +3547,7 @@
       </c>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5">
       <c r="B6" s="9" t="s">
         <v>15</v>
       </c>
@@ -3429,7 +3558,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5">
       <c r="B7" s="9" t="s">
         <v>16</v>
       </c>
@@ -3440,7 +3569,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5">
       <c r="B8" s="9" t="s">
         <v>17</v>
       </c>
@@ -3451,7 +3580,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5">
       <c r="B9" s="9" t="s">
         <v>18</v>
       </c>
@@ -3462,9 +3591,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5">
       <c r="B10" s="9" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>23</v>
@@ -3473,20 +3602,20 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5">
       <c r="B11" s="9" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:5">
       <c r="B12" s="9" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>25</v>
@@ -3495,9 +3624,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5">
       <c r="B13" s="9" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>26</v>
@@ -3506,9 +3635,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:5">
       <c r="B14" s="9" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>27</v>
@@ -3517,9 +3646,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:5">
       <c r="B15" s="9" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>28</v>
@@ -3531,19 +3660,19 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C3" location="개요!A1" display="개요"/>
-    <hyperlink ref="C4" location="'역사 설정'!A1" display="역사 설정"/>
-    <hyperlink ref="C5" location="'구역 설정'!A1" display="구역 설정"/>
-    <hyperlink ref="C6" location="왕실!A1" display="왕실"/>
-    <hyperlink ref="C7" location="'생산 관리부'!A1" display="생산 관리부"/>
-    <hyperlink ref="C8" location="병영!A1" display="병영"/>
-    <hyperlink ref="C9" location="'역병 관리부'!A1" display="역병 관리부"/>
-    <hyperlink ref="C10" location="'사상 교육부'!A1" display="사상 교육부"/>
-    <hyperlink ref="C11" location="'배고픈 돼지들'!A1" display="배고픈 돼지들"/>
-    <hyperlink ref="C12" location="'잿빛 공방'!A1" display="잿빛 공방"/>
-    <hyperlink ref="C13" location="'통곡의 벽'!A1" display="통곡의 벽"/>
-    <hyperlink ref="C14" location="'녹슨 나사들'!A1" display="녹슨 나사들"/>
-    <hyperlink ref="C15" location="'아너킹의 고철장'!A1" display="아너킹의 고철장"/>
+    <hyperlink ref="C3" location="개요!A1" display="개요" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="C4" location="'역사 설정'!A1" display="역사 설정" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="C5" location="'구역 설정'!A1" display="구역 설정" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="C6" location="왕실!A1" display="왕실" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="C7" location="'생산 관리부'!A1" display="생산 관리부" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="C8" location="병영!A1" display="병영" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="C9" location="'역병 관리부'!A1" display="역병 관리부" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="C10" location="'사상 교육부'!A1" display="사상 교육부" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="C11" location="'배고픈 돼지들'!A1" display="배고픈 돼지들" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="C12" location="'잿빛 공방'!A1" display="잿빛 공방" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="C13" location="'통곡의 벽'!A1" display="통곡의 벽" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="C14" location="'녹슨 나사들'!A1" display="녹슨 나사들" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="C15" location="'아너킹의 고철장'!A1" display="아너킹의 고철장" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -3553,7 +3682,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3563,115 +3692,115 @@
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="1.75" style="5" customWidth="1"/>
     <col min="2" max="2" width="90.25" style="5" customWidth="1"/>
     <col min="3" max="3" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:2" ht="11.25" customHeight="1"/>
+    <row r="2" spans="2:2">
       <c r="B2" s="26" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" ht="7.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" ht="7.35" customHeight="1"/>
+    <row r="4" spans="2:2">
       <c r="B4" s="27" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="2:2" s="5" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:2" s="5" customFormat="1" ht="7.35" customHeight="1">
       <c r="B5" s="28"/>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:2">
       <c r="B6" s="21" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="2:2" ht="7.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:2" ht="7.35" customHeight="1">
       <c r="B7" s="21"/>
     </row>
-    <row r="8" spans="2:2" ht="36" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:2" ht="36">
       <c r="B8" s="12" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="2:2" ht="7.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:2" ht="7.35" customHeight="1">
       <c r="B9" s="22"/>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:2">
       <c r="B10" s="22" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="2:2" ht="7.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:2" ht="7.35" customHeight="1"/>
+    <row r="12" spans="2:2">
       <c r="B12" s="22" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="2:2" ht="7.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:2" ht="7.35" customHeight="1"/>
+    <row r="14" spans="2:2">
       <c r="B14" s="27" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="2:2" ht="7.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:2" ht="7.35" customHeight="1">
       <c r="B15" s="10"/>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:2">
       <c r="B16" s="29" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="7.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" ht="7.35" customHeight="1">
       <c r="B17" s="10"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2">
       <c r="B18" s="10"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2">
       <c r="B19" s="10"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2">
       <c r="B20" s="10"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2">
       <c r="B21" s="10"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2">
       <c r="B22" s="10"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2">
       <c r="B23" s="10"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2">
       <c r="B24" s="10"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2">
       <c r="B25" s="10"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2">
       <c r="B26" s="10"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2">
       <c r="B27" s="10"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2">
       <c r="B28" s="10"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2">
       <c r="B29" s="10"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2">
       <c r="B30" s="10"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2">
       <c r="B31" s="10"/>
     </row>
-    <row r="32" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="2:2" s="5" customFormat="1"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3679,7 +3808,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3689,46 +3818,46 @@
       <selection activeCell="B12" sqref="B6:B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="1.75" style="5" customWidth="1"/>
     <col min="2" max="2" width="90.25" style="5" customWidth="1"/>
     <col min="3" max="3" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:2" ht="11.25" customHeight="1"/>
+    <row r="2" spans="2:2">
       <c r="B2" s="26" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="2:2" ht="7.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:2" ht="7.35" customHeight="1"/>
+    <row r="4" spans="2:2">
       <c r="B4" s="27" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="2:2" s="5" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:2" s="5" customFormat="1" ht="7.35" customHeight="1">
       <c r="B5" s="28"/>
     </row>
-    <row r="7" spans="2:2" ht="7.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="2:2" ht="7.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="2:2" ht="7.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="2:2" ht="7.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:2" ht="7.35" customHeight="1"/>
+    <row r="9" spans="2:2" ht="7.35" customHeight="1"/>
+    <row r="11" spans="2:2" ht="7.35" customHeight="1"/>
+    <row r="13" spans="2:2" ht="7.35" customHeight="1"/>
+    <row r="14" spans="2:2">
       <c r="B14" s="27" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="2:2" ht="7.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:2" ht="7.35" customHeight="1">
       <c r="B15" s="10"/>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:2">
       <c r="B16" s="29" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" s="5" customFormat="1">
       <c r="B28" s="25"/>
     </row>
   </sheetData>
@@ -3738,7 +3867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3748,95 +3877,95 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="1.75" style="5" customWidth="1"/>
     <col min="2" max="2" width="90.25" style="5" customWidth="1"/>
     <col min="3" max="3" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:2" ht="11.25" customHeight="1"/>
+    <row r="2" spans="2:2">
       <c r="B2" s="26"/>
     </row>
-    <row r="3" spans="2:2" ht="7.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:2" ht="7.35" customHeight="1"/>
+    <row r="4" spans="2:2">
       <c r="B4" s="27"/>
     </row>
-    <row r="5" spans="2:2" s="5" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:2" s="5" customFormat="1" ht="7.35" customHeight="1">
       <c r="B5" s="28"/>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:2">
       <c r="B6" s="21"/>
     </row>
-    <row r="7" spans="2:2" ht="7.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:2" ht="7.35" customHeight="1">
       <c r="B7" s="21"/>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:2">
       <c r="B8" s="22"/>
     </row>
-    <row r="9" spans="2:2" ht="7.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:2" ht="7.35" customHeight="1">
       <c r="B9" s="22"/>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:2">
       <c r="B10" s="22"/>
     </row>
-    <row r="11" spans="2:2" ht="7.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:2" ht="7.35" customHeight="1"/>
+    <row r="12" spans="2:2">
       <c r="B12" s="27"/>
     </row>
-    <row r="13" spans="2:2" ht="7.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:2" ht="7.35" customHeight="1">
       <c r="B13" s="10"/>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:2">
       <c r="B14" s="29"/>
     </row>
-    <row r="15" spans="2:2" ht="7.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:2" ht="7.35" customHeight="1">
       <c r="B15" s="10"/>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:2">
       <c r="B16" s="10"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2">
       <c r="B17" s="10"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2">
       <c r="B18" s="10"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2">
       <c r="B19" s="10"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2">
       <c r="B20" s="10"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2">
       <c r="B21" s="10"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2">
       <c r="B22" s="10"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2">
       <c r="B23" s="10"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2">
       <c r="B24" s="10"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2">
       <c r="B25" s="10"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2">
       <c r="B26" s="10"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2">
       <c r="B27" s="10"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2">
       <c r="B28" s="10"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2">
       <c r="B29" s="10"/>
     </row>
-    <row r="30" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="2:2" s="5" customFormat="1"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3844,7 +3973,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3854,21 +3983,21 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="1.75" style="5" customWidth="1"/>
     <col min="2" max="2" width="90.25" style="5" customWidth="1"/>
     <col min="3" max="3" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:2" ht="11.25" customHeight="1"/>
+    <row r="2" spans="2:2">
       <c r="B2" s="24"/>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:2">
       <c r="B4" s="18"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2">
       <c r="B26" s="25"/>
     </row>
   </sheetData>
@@ -3878,7 +4007,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3888,21 +4017,21 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="1.75" style="5" customWidth="1"/>
     <col min="2" max="2" width="90.25" style="5" customWidth="1"/>
     <col min="3" max="3" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:2" ht="11.25" customHeight="1"/>
+    <row r="2" spans="2:2">
       <c r="B2" s="24"/>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:2">
       <c r="B4" s="18"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2">
       <c r="B26" s="25"/>
     </row>
   </sheetData>
@@ -3912,7 +4041,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3922,62 +4051,62 @@
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="1.75" style="5" customWidth="1"/>
     <col min="2" max="2" width="90.25" style="5" customWidth="1"/>
     <col min="3" max="3" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:3" ht="11.25" customHeight="1"/>
+    <row r="2" spans="2:3">
       <c r="B2" s="26" t="s">
         <v>126</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" ht="7.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="7.35" customHeight="1"/>
+    <row r="4" spans="2:3">
       <c r="B4" s="27" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="2:3" s="5" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" s="5" customFormat="1" ht="7.35" customHeight="1">
       <c r="B5" s="28"/>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3">
       <c r="B6" s="21" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="7.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:3" ht="7.35" customHeight="1">
       <c r="B7" s="21"/>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:3">
       <c r="B8" s="22" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="7.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:3" ht="7.35" customHeight="1">
       <c r="B9" s="22"/>
     </row>
-    <row r="10" spans="2:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:3" ht="24">
       <c r="B10" s="12" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="7.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:3" ht="7.35" customHeight="1"/>
+    <row r="12" spans="2:3">
       <c r="B12" s="27" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="2:3" ht="7.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:3" ht="7.35" customHeight="1">
       <c r="B13" s="10"/>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:3">
       <c r="B14" s="29" t="s">
         <v>112</v>
       </c>
@@ -3989,7 +4118,7 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3999,110 +4128,110 @@
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="1.75" style="5" customWidth="1"/>
     <col min="2" max="2" width="90.25" style="5" customWidth="1"/>
     <col min="3" max="3" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:3" ht="11.25" customHeight="1"/>
+    <row r="2" spans="2:3">
       <c r="B2" s="26" t="s">
         <v>95</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" ht="7.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="7.35" customHeight="1"/>
+    <row r="4" spans="2:3">
       <c r="B4" s="27" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="2:3" s="5" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" s="5" customFormat="1" ht="7.35" customHeight="1">
       <c r="B5" s="28"/>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3">
       <c r="B6" s="21" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="7.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:3" ht="7.35" customHeight="1">
       <c r="B7" s="21"/>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:3">
       <c r="B8" s="22" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="7.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:3" ht="7.35" customHeight="1">
       <c r="B9" s="22"/>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:3">
       <c r="B10" s="22" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="7.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:3" ht="7.35" customHeight="1"/>
+    <row r="12" spans="2:3">
       <c r="B12" s="27" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="2:3" ht="7.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:3" ht="7.35" customHeight="1">
       <c r="B13" s="10"/>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:3">
       <c r="B14" s="29"/>
     </row>
-    <row r="15" spans="2:3" ht="7.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:3" ht="7.35" customHeight="1">
       <c r="B15" s="10"/>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:3">
       <c r="B16" s="10"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2">
       <c r="B17" s="10"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2">
       <c r="B18" s="10"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2">
       <c r="B19" s="10"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2">
       <c r="B20" s="10"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2">
       <c r="B21" s="10"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2">
       <c r="B22" s="10"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2">
       <c r="B23" s="10"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2">
       <c r="B24" s="10"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2">
       <c r="B25" s="10"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2">
       <c r="B26" s="10"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2">
       <c r="B27" s="10"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2">
       <c r="B28" s="10"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2">
       <c r="B29" s="10"/>
     </row>
-    <row r="30" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="2:2" s="5" customFormat="1"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4110,20 +4239,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="1.875" customWidth="1"/>
     <col min="2" max="2" width="96.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="10.5" customHeight="1">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -4133,7 +4262,7 @@
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2" s="5"/>
       <c r="B2" s="24" t="s">
         <v>30</v>
@@ -4145,7 +4274,7 @@
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" s="5"/>
       <c r="B3" s="21" t="s">
         <v>31</v>
@@ -4157,7 +4286,7 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" s="5"/>
       <c r="B4" s="22" t="s">
         <v>64</v>
@@ -4169,7 +4298,7 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -4179,7 +4308,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" s="5"/>
       <c r="B6" s="23" t="s">
         <v>66</v>
@@ -4191,7 +4320,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" s="5"/>
       <c r="B7" s="21" t="s">
         <v>65</v>
@@ -4203,7 +4332,7 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -4213,7 +4342,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -4223,7 +4352,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -4233,7 +4362,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -4243,7 +4372,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -4253,7 +4382,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -4263,7 +4392,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -4273,7 +4402,7 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -4283,7 +4412,7 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -4293,7 +4422,7 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -4303,7 +4432,7 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -4313,7 +4442,7 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -4323,7 +4452,7 @@
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -4333,7 +4462,7 @@
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -4343,7 +4472,7 @@
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -4353,7 +4482,7 @@
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -4363,7 +4492,7 @@
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -4373,7 +4502,7 @@
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -4383,7 +4512,7 @@
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -4393,7 +4522,7 @@
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -4410,14 +4539,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="2.125" style="10" customWidth="1"/>
     <col min="2" max="2" width="106.125" style="10" customWidth="1"/>
@@ -4426,288 +4555,288 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:2" ht="9.75" customHeight="1"/>
+    <row r="2" spans="2:2" ht="16.5">
       <c r="B2" s="24" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:2" ht="16.5">
       <c r="B3" s="14"/>
     </row>
-    <row r="4" spans="2:2" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:2" ht="13.5">
       <c r="B4" s="18" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="2:2" ht="7.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:2" ht="7.5" customHeight="1"/>
+    <row r="6" spans="2:2">
       <c r="B6" s="12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="2:2" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:2" ht="7.5" customHeight="1">
       <c r="B7" s="12"/>
     </row>
-    <row r="8" spans="2:2" ht="24" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:2" ht="24">
       <c r="B8" s="12" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="2:2" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:2" ht="7.5" customHeight="1">
       <c r="B9" s="12"/>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:2">
       <c r="B10" s="12" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="2:2" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:2" ht="7.5" customHeight="1">
       <c r="B11" s="13"/>
     </row>
-    <row r="12" spans="2:2" ht="24" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:2" ht="24">
       <c r="B12" s="12" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="2:2" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:2" ht="7.5" customHeight="1">
       <c r="B13" s="13"/>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:2">
       <c r="B14" s="12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="2:2" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:2" ht="7.5" customHeight="1">
       <c r="B15" s="12"/>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:2">
       <c r="B16" s="12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" ht="7.5" customHeight="1">
       <c r="B17" s="12"/>
     </row>
-    <row r="18" spans="2:2" ht="24" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" ht="24">
       <c r="B18" s="13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" ht="7.5" customHeight="1">
       <c r="B19" s="13"/>
     </row>
-    <row r="20" spans="2:2" ht="24" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" ht="24">
       <c r="B20" s="13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" ht="7.5" customHeight="1">
       <c r="B21" s="13"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2">
       <c r="B22" s="12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="2:2" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" ht="13.5">
       <c r="B24" s="18" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="2:2" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" ht="7.5" customHeight="1">
       <c r="B25" s="15"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2">
       <c r="B26" s="12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="2:2" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" ht="7.5" customHeight="1">
       <c r="B27" s="12"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2">
       <c r="B28" s="12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="2:2" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2" ht="7.5" customHeight="1">
       <c r="B29" s="12"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2">
       <c r="B30" s="12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="2:2" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2" ht="7.5" customHeight="1">
       <c r="B31" s="13"/>
     </row>
-    <row r="32" spans="2:2" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2" ht="13.5">
       <c r="B32" s="17" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="2:2" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" ht="7.5" customHeight="1">
       <c r="B33" s="20"/>
     </row>
-    <row r="34" spans="2:2" ht="24" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" ht="24">
       <c r="B34" s="13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="2:2" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" ht="7.5" customHeight="1">
       <c r="B35" s="13"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2">
       <c r="B36" s="12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="2:2" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" ht="7.5" customHeight="1">
       <c r="B37" s="12"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2">
       <c r="B38" s="13" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="2:2" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" ht="7.5" customHeight="1">
       <c r="B39" s="13"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2">
       <c r="B40" s="13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="2:2" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" ht="7.5" customHeight="1">
       <c r="B41" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="2:2" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2" ht="13.5">
       <c r="B42" s="17" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="43" spans="2:2" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" ht="7.5" customHeight="1">
       <c r="B43" s="13"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2">
       <c r="B44" s="13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="2:2" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" ht="7.5" customHeight="1">
       <c r="B45" s="13"/>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2">
       <c r="B46" s="12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="2:2" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2" ht="7.5" customHeight="1">
       <c r="B47" s="12"/>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2">
       <c r="B48" s="12" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:3" ht="7.5" customHeight="1">
       <c r="B49" s="12"/>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:3">
       <c r="B50" s="12" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" ht="7.5" customHeight="1">
       <c r="B51" s="12"/>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:3">
       <c r="B52" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:3" ht="7.5" customHeight="1">
       <c r="B53" s="12"/>
     </row>
-    <row r="54" spans="2:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:3" ht="24">
       <c r="B54" s="12" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="55" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:3" ht="7.5" customHeight="1">
       <c r="B55" s="13"/>
     </row>
-    <row r="56" spans="2:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:3" ht="24">
       <c r="B56" s="12" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="57" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:3" ht="7.5" customHeight="1">
       <c r="B57" s="13"/>
     </row>
-    <row r="58" spans="2:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:3" ht="24">
       <c r="B58" s="12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="59" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:3" ht="7.5" customHeight="1">
       <c r="B59" s="12"/>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:3">
       <c r="B60" s="33" t="s">
         <v>52</v>
       </c>
       <c r="C60" s="34" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="61" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" ht="7.5" customHeight="1">
       <c r="B61" s="12"/>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:3">
       <c r="B62" s="12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="63" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:3" ht="7.5" customHeight="1">
       <c r="B63" s="13"/>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:3">
       <c r="B64" s="16" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="2:2" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2" ht="7.5" customHeight="1">
       <c r="B65" s="19"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2">
       <c r="B66" s="12" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="67" spans="2:2" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2" ht="7.5" customHeight="1">
       <c r="B67" s="12"/>
     </row>
-    <row r="68" spans="2:2" ht="24" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2" ht="24">
       <c r="B68" s="12" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="69" spans="2:2" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2" ht="7.5" customHeight="1">
       <c r="B69" s="12"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:2">
       <c r="B70" s="12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="71" spans="2:2" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2" ht="7.5" customHeight="1">
       <c r="B71" s="12"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:2">
       <c r="B72" s="12" t="s">
         <v>57</v>
       </c>
@@ -4719,32 +4848,32 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="1.75" style="5" customWidth="1"/>
     <col min="2" max="2" width="90.25" style="5" customWidth="1"/>
     <col min="3" max="3" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:2" ht="11.25" customHeight="1"/>
+    <row r="2" spans="2:2">
       <c r="B2" s="24" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:2">
       <c r="B4" s="18" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2">
       <c r="B26" s="18" t="s">
         <v>71</v>
       </c>
@@ -4758,7 +4887,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor rgb="FF61F339"/>
   </sheetPr>
@@ -4768,7 +4897,7 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4776,153 +4905,153 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="1.75" style="5" customWidth="1"/>
     <col min="2" max="2" width="90.25" style="5" customWidth="1"/>
     <col min="3" max="3" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:2" ht="11.25" customHeight="1"/>
+    <row r="2" spans="2:2">
       <c r="B2" s="26" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="2:2" ht="7.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:2" ht="7.35" customHeight="1"/>
+    <row r="4" spans="2:2">
       <c r="B4" s="27" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="2:2" s="5" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:2" s="5" customFormat="1" ht="7.35" customHeight="1">
       <c r="B5" s="28"/>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:2">
       <c r="B6" s="21" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="2:2" ht="7.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:2" ht="7.35" customHeight="1">
       <c r="B7" s="21"/>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:2">
       <c r="B8" s="22" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="2:2" ht="7.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:2" ht="7.35" customHeight="1">
       <c r="B9" s="22"/>
     </row>
-    <row r="10" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:2" ht="13.5" customHeight="1">
       <c r="B10" s="22" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" ht="7.35" customHeight="1" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" ht="7.35" customHeight="1">
       <c r="B11" s="22"/>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:2">
       <c r="B12" s="22" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="2:2" ht="7.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:2" ht="7.35" customHeight="1"/>
+    <row r="14" spans="2:2">
       <c r="B14" s="27" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="2:2" ht="7.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:2" ht="7.35" customHeight="1">
       <c r="B15" s="10"/>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:2">
       <c r="B16" s="29" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="7.35" customHeight="1">
+      <c r="B17" s="10"/>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="21" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="21" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="7.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="10"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="21" t="s">
+    <row r="20" spans="2:2">
+      <c r="B20" s="21" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" s="21" t="s">
+    <row r="21" spans="2:2" ht="6" customHeight="1">
+      <c r="B21" s="10"/>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="29" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="21" t="s">
+    <row r="23" spans="2:2">
+      <c r="B23" s="21" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="10"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22" s="29" t="s">
+    <row r="24" spans="2:2">
+      <c r="B24" s="21" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B23" s="21" t="s">
+    <row r="25" spans="2:2">
+      <c r="B25" s="21" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B24" s="21" t="s">
+    <row r="26" spans="2:2">
+      <c r="B26" s="21" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B25" s="21" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B26" s="21" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2">
       <c r="B27" s="21" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" ht="4.5" customHeight="1">
       <c r="B28" s="10"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2">
       <c r="B29" s="29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" ht="5.25" customHeight="1">
+      <c r="B30" s="10"/>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="21" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" s="5" customFormat="1">
+      <c r="B32" s="21" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="30" spans="2:2" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="10"/>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B31" s="21" t="s">
+    <row r="33" spans="2:2">
+      <c r="B33" s="22" t="s">
         <v>165</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="21" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B33" s="22" t="s">
-        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -4932,159 +5061,159 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="1.75" style="5" customWidth="1"/>
     <col min="2" max="2" width="90.25" style="5" customWidth="1"/>
     <col min="3" max="3" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:2" ht="11.25" customHeight="1"/>
+    <row r="2" spans="2:2">
       <c r="B2" s="26" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="2:2" ht="7.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:2" ht="7.35" customHeight="1"/>
+    <row r="4" spans="2:2">
       <c r="B4" s="27" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="2:2" s="5" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:2" s="5" customFormat="1" ht="7.35" customHeight="1">
       <c r="B5" s="28"/>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:2">
       <c r="B6" s="21" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" ht="7.35" customHeight="1" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" ht="7.35" customHeight="1">
       <c r="B7" s="21"/>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:2">
       <c r="B8" s="21" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="2:2" ht="7.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:2" ht="7.35" customHeight="1">
       <c r="B9" s="22"/>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:2">
       <c r="B10" s="22" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="2:2" ht="7.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:2" ht="7.35" customHeight="1"/>
+    <row r="12" spans="2:2">
       <c r="B12" s="27" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="2:2" ht="7.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:2" ht="7.35" customHeight="1">
       <c r="B13" s="10"/>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:2">
       <c r="B14" s="29" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" ht="7.35" customHeight="1">
+      <c r="B15" s="10"/>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="21" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="21" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="15" spans="2:2" ht="7.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="10"/>
-    </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B16" s="21" t="s">
+    <row r="18" spans="2:2">
+      <c r="B18" s="22" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="21" t="s">
+    <row r="19" spans="2:2" ht="6.75" customHeight="1">
+      <c r="B19" s="31"/>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="29" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="22" t="s">
+    <row r="21" spans="2:2" ht="6.75" customHeight="1">
+      <c r="B21" s="31"/>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="22" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="31"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="29" t="s">
+    <row r="23" spans="2:2">
+      <c r="B23" s="22" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="31"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22" s="22" t="s">
+    <row r="24" spans="2:2">
+      <c r="B24" s="22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B23" s="22" t="s">
+    <row r="25" spans="2:2">
+      <c r="B25" s="22" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B24" s="22" t="s">
+    <row r="26" spans="2:2">
+      <c r="B26" s="32" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B25" s="22" t="s">
+    <row r="27" spans="2:2">
+      <c r="B27" s="22" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B26" s="32" t="s">
+    <row r="28" spans="2:2">
+      <c r="B28" s="22" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B27" s="22" t="s">
+    <row r="29" spans="2:2">
+      <c r="B29" s="22" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B28" s="22" t="s">
+    <row r="30" spans="2:2" ht="6" customHeight="1"/>
+    <row r="31" spans="2:2">
+      <c r="B31" s="29" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B29" s="22" t="s">
+    <row r="32" spans="2:2" ht="8.25" customHeight="1"/>
+    <row r="33" spans="2:2">
+      <c r="B33" s="22" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="30" spans="2:2" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B31" s="29" t="s">
+    <row r="34" spans="2:2">
+      <c r="B34" s="22" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="32" spans="2:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B33" s="22" t="s">
+    <row r="35" spans="2:2">
+      <c r="B35" s="22" t="s">
         <v>161</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B34" s="22" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B35" s="22" t="s">
-        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -5094,7 +5223,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor rgb="FF61F339"/>
   </sheetPr>
@@ -5102,7 +5231,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DesignDocs/Design/발주 문서/0811-2017_세계관 통합 문서.xlsx
+++ b/DesignDocs/Design/발주 문서/0811-2017_세계관 통합 문서.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\Design\발주 문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6BBB74-5B13-4B08-9FA3-7F309F3954CF}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" firstSheet="5" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12396" firstSheet="9" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Log" sheetId="1" r:id="rId1"/>
@@ -50,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="290">
   <si>
     <t>작성일</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -422,10 +421,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>- 역병에 취약한 '인간'은 거의 없으며, 방문하는 것조차 꺼려한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>- 주로 면역력이 강한 수인(주로 고양이)이 일하고 있다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -832,10 +827,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>- 비밀 리에 범죄자들을 데려와서 인체 실험을 한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>- 실험실에서는 주로 약물 실험, 역병 실험, 식재료 실험 등을 하고 있다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1311,38 +1302,84 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>- 그물망 지역은 쓰레기장과 같은 역할을 하고 있었으나 모여드는 쓰레기와 고철의 양이 늘어나 현재는 사람이 살 수 있을 정도의 얇은 빙하 같은 구조가 형성되어 버려진 수인들이 살고 있다. 간혹 고철이 벌어진 틈이 크레바스처럼 생겨나 순식간에 사람이 사라지는 일도 왕왕 존재한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 에일리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 블룸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 아너킹의 고철장에서 고아로 자라온 블룸은 자신을 지키기 위해 온갖 화학무기로 무장하게 된다. 현 사회에 대한 불만을 품은 블룸은 독이 묻은 꽃을 전달하는 방법으로 전 황제의 심복들을 하나씩 제거하다가 로무스에게 붙잡히게 된다. 로무스는 블룸의 화학지식을 이용하기 위해 자신의 측근으로 영입하게 된다. '그날'이 있은 후 로무스는 자신의 심복들에게 구역의 관리를 맡기게 되었고, 그중 고철장 출신인 블룸에게 고철장 관리를 맡기게 된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 투기장 최고의 스타 돈시나는 평생을 방주의 엔터테이너로써 살아왔다. 자존심과 아집으로 똘똘뭉친 그에게 귀족들은 승부조작을 부탁하지만 일언지하에 거절하게 된다.  그 일로 인해 돈 시나는 모든 부와 명예를 빼앗기게 되며 고철장으로 추방당하게 되었다. 그러나 돈 시나는 현실을 받아들이지 못하고 억누를 수 없는 증오를 무차별적인 폭력으로 풀어내게 되었다. '그날' 이후 행방이 묘연해진 레무스의 행방을 쫒던 귀족들은 복권을 내걸고 은밀한 제안을 해온다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">- 고철 반 수배범 반 이라는 곳에 최고의 현상금 사냥꾼인 그녀는 지금도 자신의 먹이감을 쫒아다니고 있다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>- 초기에는 고철장으로 불렸으나, 아너킹이 이곳에 버려져서 살아남은 이후 아너킹의 고철장이라고 불리고 있다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>- 그물망 지역은 쓰레기장과 같은 역할을 하고 있었으나 모여드는 쓰레기와 고철의 양이 늘어나 현재는 사람이 살 수 있을 정도의 얇은 빙하 같은 구조가 형성되어 버려진 수인들이 살고 있다. 간혹 고철이 벌어진 틈이 크레바스처럼 생겨나 순식간에 사람이 사라지는 일도 왕왕 존재한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 에일리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 블룸</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 투기장 최고의 스타 돈시나는 평생을 방주의 엔터테이너로써 살아왔다. 인기가 높아져 갈수록 그는 점점 거만해져 갔고 결국 훈련 도중에 사고로 왕족을 죽이고 만다. 그 일로 인해 돈 시나는 모든 부와 명예를 빼앗기게 되며 고철장으로 추방당하게 되었다. 그러나 돈 시나는 현실을 받아들이지 못하고 억누를 수 없는 증오를 무차별적인 폭력으로 풀어내게 되었다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 아너킹의 고철장 개발부 장관으로 파견</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 블룸의 개인 경호원</t>
+    <t>* 카르바노그 CL-25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 태그 &amp; 팀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 메드버디</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 일련번호: CL-25 ■■
+  ■■반응: 양성
+  약물반응: 양성
+  최적화: 확인
+  담당연구원: Tim
+  비고: ■■■■■ ■■■■의 최고의 작품이자 최악의 작품, ■■■■의 육체를 복사 가능했으나 정신오염이 심함. 
+         ■■■■■ 주의. 연구 결과 폐기 요망</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 역병에 취약한 '인간'은 거의 없으며, 방문하는 것조차 꺼려한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 비밀 리에 범죄자들을 데려와서 생체 실험을 한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">- 사실 연구소 가드들과 연구원들은 그다지 사이가 좋지는 않았다. '타는 목마름'에서 회식을 하던 연구원 팀과 가드 팀의 
+시비가 붙어 난투가 벌어졌을때 그 둘은 격렬하게 주먹다짐을 하게 된다. 
+술집 뒤 쓰레기장에서 깨어난 태그와 팀 은 태그의 한마디로 서로 둘도없는 친구가 되었다.
+"연구원님의 머리에 내 실력이면, 머 이건 완전히 살아 있는데"
+"You know the difference between you and me? I make this look good."
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 메드버디는 역병관리부 연구원장이다. 그는 오직 연구에만 관심이 있을뿐 나머지엔 관심조차 두지 않는다. 
+'그날'이후에 그가 여전히 연구원장으로 남을 수 있을 수 있었던 이유도 그래서인지 모른다. 그는 여가시간에 무언가 만드는걸
+선호한다. 예를들자면 2년간 연구를 통해 먹으면 뿔만을 제거하는 약이라든가. 8년간 연구하여 박쥐 수인들의 시력을 좋게 하는
+약이라든가. 그의 능력에 비해서 쓰잘데기 없는 물건을 발명하곤 외친다. "Good news everyone"</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
@@ -1564,7 +1601,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1703,6 +1740,9 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1746,7 +1786,7 @@
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1790,7 +1830,7 @@
         <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2081,19 +2121,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="1.5" customWidth="1"/>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="12.125" customWidth="1"/>
-    <col min="4" max="4" width="34.75" customWidth="1"/>
+    <col min="2" max="2" width="16.09765625" customWidth="1"/>
+    <col min="3" max="3" width="12.09765625" customWidth="1"/>
+    <col min="4" max="4" width="34.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="6.75" customHeight="1"/>
@@ -2135,10 +2175,10 @@
         <v>42960</v>
       </c>
       <c r="C5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="2:4">
@@ -2146,10 +2186,10 @@
         <v>42964</v>
       </c>
       <c r="C6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D6" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -2160,17 +2200,17 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="1.75" style="5" customWidth="1"/>
-    <col min="2" max="2" width="90.25" style="5" customWidth="1"/>
+    <col min="1" max="1" width="1.69921875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="90.19921875" style="5" customWidth="1"/>
     <col min="3" max="3" width="9" style="5"/>
   </cols>
   <sheetData>
@@ -2207,7 +2247,7 @@
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="2:2" ht="7.35" customHeight="1"/>
@@ -2229,27 +2269,27 @@
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21" spans="2:2">
@@ -2287,24 +2327,24 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:C40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="1.75" style="5" customWidth="1"/>
-    <col min="2" max="2" width="90.25" style="5" customWidth="1"/>
+    <col min="1" max="1" width="1.69921875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="90.19921875" style="5" customWidth="1"/>
     <col min="3" max="3" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="11.25" customHeight="1"/>
     <row r="2" spans="1:2">
       <c r="B2" s="26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="7.35" customHeight="1"/>
@@ -2317,8 +2357,8 @@
       <c r="B5" s="28"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="B6" s="21" t="s">
-        <v>88</v>
+      <c r="B6" s="46" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="7.35" customHeight="1">
@@ -2326,7 +2366,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="B8" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="7.35" customHeight="1">
@@ -2334,19 +2374,19 @@
     </row>
     <row r="10" spans="1:2">
       <c r="B10" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="7.35" customHeight="1"/>
     <row r="12" spans="1:2">
       <c r="B12" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="7.35" customHeight="1"/>
     <row r="14" spans="1:2">
       <c r="B14" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="7.35" customHeight="1"/>
@@ -2363,33 +2403,33 @@
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="2:2" ht="6.75" customHeight="1"/>
     <row r="20" spans="2:2">
       <c r="B20" s="22" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="22" t="s">
-        <v>173</v>
+        <v>287</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="22" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="22" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="2:2">
@@ -2397,7 +2437,7 @@
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="29" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="2:2" ht="6.75" customHeight="1">
@@ -2405,27 +2445,27 @@
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="22" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="22" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="22" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="33" spans="2:2">
@@ -2433,7 +2473,7 @@
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="29" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="35" spans="2:2" ht="6.75" customHeight="1">
@@ -2441,27 +2481,83 @@
     </row>
     <row r="36" spans="2:2">
       <c r="B36" s="22" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="22" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" s="22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" s="22" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" s="22" t="s">
-        <v>189</v>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" ht="3.75" customHeight="1">
+      <c r="B41" s="21"/>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="40" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" ht="3.75" customHeight="1">
+      <c r="B43" s="21"/>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="39" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" ht="3.75" customHeight="1">
+      <c r="B45" s="21"/>
+    </row>
+    <row r="46" spans="2:2" ht="92.4">
+      <c r="B46" s="42" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" ht="3.75" customHeight="1">
+      <c r="B47" s="21"/>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="39" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" ht="3.75" customHeight="1">
+      <c r="B49" s="21"/>
+    </row>
+    <row r="50" spans="2:2" ht="79.2">
+      <c r="B50" s="42" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" ht="3.75" customHeight="1">
+      <c r="B51" s="21"/>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="39" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" ht="3.75" customHeight="1">
+      <c r="B53" s="21"/>
+    </row>
+    <row r="54" spans="2:2" ht="52.8">
+      <c r="B54" s="12" t="s">
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -2471,24 +2567,24 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="1.75" style="5" customWidth="1"/>
-    <col min="2" max="2" width="90.25" style="5" customWidth="1"/>
+    <col min="1" max="1" width="1.69921875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="90.19921875" style="5" customWidth="1"/>
     <col min="3" max="3" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2" ht="11.25" customHeight="1"/>
     <row r="2" spans="2:2">
       <c r="B2" s="26" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" spans="2:2" ht="7.35" customHeight="1"/>
@@ -2502,7 +2598,7 @@
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="7.35" customHeight="1">
@@ -2510,7 +2606,7 @@
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="2:2" ht="7.35" customHeight="1">
@@ -2518,13 +2614,13 @@
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="2:2" ht="7.35" customHeight="1"/>
     <row r="12" spans="2:2">
       <c r="B12" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="2:2" ht="7.35" customHeight="1"/>
@@ -2538,27 +2634,27 @@
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="21" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="21" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="21" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="21" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21" spans="2:2">
@@ -2566,22 +2662,22 @@
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="29" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="21" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="21" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="37" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="26" spans="2:2">
@@ -2589,22 +2685,22 @@
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="29" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="21" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="21" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="21" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31" spans="2:2">
@@ -2633,7 +2729,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF61F339"/>
   </sheetPr>
@@ -2643,7 +2739,7 @@
       <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2651,24 +2747,24 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="1.75" style="5" customWidth="1"/>
-    <col min="2" max="2" width="90.25" style="5" customWidth="1"/>
+    <col min="1" max="1" width="1.69921875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="90.19921875" style="5" customWidth="1"/>
     <col min="3" max="3" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2" ht="11.25" customHeight="1"/>
     <row r="2" spans="2:2">
       <c r="B2" s="26" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="2:2" ht="7.35" customHeight="1"/>
@@ -2682,7 +2778,7 @@
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="22" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="7.35" customHeight="1">
@@ -2690,7 +2786,7 @@
     </row>
     <row r="8" spans="2:2" ht="15" customHeight="1">
       <c r="B8" s="22" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="2:2" ht="7.35" customHeight="1">
@@ -2698,7 +2794,7 @@
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="22" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="2:2" ht="7.35" customHeight="1"/>
@@ -2712,7 +2808,7 @@
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="29" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="2:2" ht="7.35" customHeight="1">
@@ -2720,7 +2816,7 @@
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="21" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="4.5" customHeight="1">
@@ -2728,7 +2824,7 @@
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="2:2" ht="4.5" customHeight="1">
@@ -2736,21 +2832,21 @@
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" ht="5.25" customHeight="1"/>
+    <row r="22" spans="2:2" ht="26.4">
+      <c r="B22" s="12" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" ht="5.25" customHeight="1"/>
-    <row r="22" spans="2:2" ht="24">
-      <c r="B22" s="12" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="23" spans="2:2" ht="3.75" customHeight="1">
       <c r="B23" s="22"/>
     </row>
-    <row r="24" spans="2:2" ht="48">
+    <row r="24" spans="2:2" ht="52.8">
       <c r="B24" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="2:2" ht="11.25" customHeight="1">
@@ -2758,7 +2854,7 @@
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="29" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27" spans="2:2" ht="3.75" customHeight="1">
@@ -2766,15 +2862,15 @@
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="2:2" ht="3" customHeight="1">
       <c r="B29" s="21"/>
     </row>
-    <row r="30" spans="2:2" s="5" customFormat="1" ht="36">
+    <row r="30" spans="2:2" s="5" customFormat="1" ht="39.6">
       <c r="B30" s="12" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="31" spans="2:2" ht="5.25" customHeight="1">
@@ -2782,13 +2878,13 @@
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="22" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="33" spans="2:2" ht="4.5" customHeight="1"/>
     <row r="34" spans="2:2">
       <c r="B34" s="22" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -2798,24 +2894,24 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="1.75" style="5" customWidth="1"/>
-    <col min="2" max="2" width="90.25" style="5" customWidth="1"/>
+    <col min="1" max="1" width="1.69921875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="90.19921875" style="5" customWidth="1"/>
     <col min="3" max="3" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2" ht="11.25" customHeight="1"/>
     <row r="2" spans="2:2">
       <c r="B2" s="26" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="2:2" ht="7.35" customHeight="1"/>
@@ -2829,7 +2925,7 @@
     </row>
     <row r="6" spans="2:2" s="5" customFormat="1">
       <c r="B6" s="22" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="5.25" customHeight="1">
@@ -2837,15 +2933,15 @@
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="2:2" s="5" customFormat="1" ht="7.35" customHeight="1">
       <c r="B9" s="28"/>
     </row>
-    <row r="10" spans="2:2" ht="60">
+    <row r="10" spans="2:2" ht="66">
       <c r="B10" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="2:2" ht="7.35" customHeight="1"/>
@@ -2859,7 +2955,7 @@
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="29" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="2:2" ht="7.35" customHeight="1">
@@ -2867,7 +2963,7 @@
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="6" customHeight="1">
@@ -2875,15 +2971,15 @@
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="2:2" ht="5.25" customHeight="1">
       <c r="B19" s="22"/>
     </row>
-    <row r="20" spans="2:2" ht="24">
+    <row r="20" spans="2:2" ht="26.4">
       <c r="B20" s="12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="7.5" customHeight="1">
@@ -2891,7 +2987,7 @@
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="29" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23" spans="2:2" ht="6.75" customHeight="1">
@@ -2899,7 +2995,7 @@
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="21" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" spans="2:2" ht="3.75" customHeight="1">
@@ -2907,7 +3003,7 @@
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="2:2" ht="4.5" customHeight="1">
@@ -2915,40 +3011,40 @@
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="2:2" ht="4.5" customHeight="1"/>
     <row r="30" spans="2:2" s="5" customFormat="1">
       <c r="B30" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="2:2" ht="7.5" customHeight="1"/>
     <row r="32" spans="2:2">
       <c r="B32" s="29" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="33" spans="2:2" ht="6.75" customHeight="1"/>
     <row r="34" spans="2:2">
       <c r="B34" s="37" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" ht="24">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" ht="26.4">
       <c r="B35" s="33" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" s="38" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" ht="24">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" ht="26.4">
       <c r="B37" s="33" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="38" spans="2:2">
@@ -2968,24 +3064,24 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="1.75" style="5" customWidth="1"/>
-    <col min="2" max="2" width="90.25" style="5" customWidth="1"/>
+    <col min="1" max="1" width="1.69921875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="90.19921875" style="5" customWidth="1"/>
     <col min="3" max="3" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2" ht="11.25" customHeight="1"/>
     <row r="2" spans="2:2">
       <c r="B2" s="26" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="2:2" ht="7.35" customHeight="1"/>
@@ -2999,15 +3095,15 @@
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="7.35" customHeight="1">
       <c r="B7" s="21"/>
     </row>
-    <row r="8" spans="2:2" ht="24">
+    <row r="8" spans="2:2" ht="26.4">
       <c r="B8" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="2:2" ht="7.35" customHeight="1">
@@ -3015,7 +3111,7 @@
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="2:2" ht="7.35" customHeight="1"/>
@@ -3029,7 +3125,7 @@
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="2:2" ht="4.5" customHeight="1">
@@ -3037,12 +3133,12 @@
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="21" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="21" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="8.25" customHeight="1">
@@ -3050,7 +3146,7 @@
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="29" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="4.5" customHeight="1">
@@ -3058,17 +3154,17 @@
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="21" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="21" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="21" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="24" spans="2:2" ht="7.5" customHeight="1">
@@ -3076,7 +3172,7 @@
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="29" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="26" spans="2:2" ht="4.5" customHeight="1">
@@ -3084,12 +3180,12 @@
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="21" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="21" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="29" spans="2:2">
@@ -3107,29 +3203,29 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="1.75" style="5" customWidth="1"/>
-    <col min="2" max="2" width="90.25" style="5" customWidth="1"/>
+    <col min="1" max="1" width="1.69921875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="90.19921875" style="5" customWidth="1"/>
     <col min="3" max="3" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2" ht="11.25" customHeight="1"/>
     <row r="2" spans="2:2">
       <c r="B2" s="30" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="2:2">
@@ -3142,7 +3238,7 @@
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="7.35" customHeight="1">
@@ -3150,7 +3246,7 @@
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="12" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="2:2" ht="7.35" customHeight="1">
@@ -3158,7 +3254,7 @@
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="22" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="2:2" ht="7.35" customHeight="1"/>
@@ -3172,23 +3268,23 @@
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="2:2" ht="5.25" customHeight="1"/>
     <row r="16" spans="2:2">
       <c r="B16" s="21" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="21" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="21" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19" spans="2:2" ht="6" customHeight="1">
@@ -3196,23 +3292,23 @@
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="29" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="3.75" customHeight="1"/>
     <row r="22" spans="2:2">
       <c r="B22" s="21" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="21" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="21" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="25" spans="2:2" ht="5.25" customHeight="1">
@@ -3220,18 +3316,18 @@
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="29" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="27" spans="2:2" ht="4.5" customHeight="1"/>
     <row r="28" spans="2:2">
       <c r="B28" s="21" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="21" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="30" spans="2:2">
@@ -3251,24 +3347,24 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:XFD49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="1.75" style="5" customWidth="1"/>
-    <col min="2" max="2" width="90.25" style="5" customWidth="1"/>
+    <col min="1" max="1" width="1.69921875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="90.19921875" style="5" customWidth="1"/>
     <col min="3" max="3" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2" ht="11.25" customHeight="1"/>
     <row r="2" spans="2:2">
       <c r="B2" s="26" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3" spans="2:2" ht="7.35" customHeight="1"/>
@@ -3282,7 +3378,7 @@
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="21" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="7.35" customHeight="1">
@@ -3290,7 +3386,7 @@
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="12" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="2:2" ht="7.35" customHeight="1">
@@ -3298,7 +3394,7 @@
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="22" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="2:2" ht="7.35" customHeight="1"/>
@@ -3312,7 +3408,7 @@
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="29" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="2:2" ht="7.35" customHeight="1">
@@ -3320,15 +3416,15 @@
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="5.25" customHeight="1">
       <c r="B17" s="21"/>
     </row>
-    <row r="18" spans="2:2" ht="36">
+    <row r="18" spans="2:2" ht="39.6">
       <c r="B18" s="45" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="19" spans="2:2" ht="5.25" customHeight="1">
@@ -3336,19 +3432,19 @@
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="22" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="3.75" customHeight="1"/>
     <row r="22" spans="2:2">
       <c r="B22" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="2:2" ht="3" customHeight="1"/>
     <row r="24" spans="2:2">
       <c r="B24" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="2:2">
@@ -3356,7 +3452,7 @@
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="29" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="2:2" ht="6" customHeight="1">
@@ -3364,7 +3460,7 @@
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="2:2" ht="3.75" customHeight="1">
@@ -3372,7 +3468,7 @@
     </row>
     <row r="30" spans="2:2" s="5" customFormat="1">
       <c r="B30" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="2:2" ht="3.75" customHeight="1">
@@ -3380,18 +3476,18 @@
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="44" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="3.75" customHeight="1"/>
     <row r="34" spans="2:3">
       <c r="B34" s="22" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="35" spans="2:3">
       <c r="B35" s="43" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C35" s="41"/>
     </row>
@@ -3400,7 +3496,7 @@
     </row>
     <row r="37" spans="2:3">
       <c r="B37" s="40" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="3.75" customHeight="1">
@@ -3408,15 +3504,15 @@
     </row>
     <row r="39" spans="2:3">
       <c r="B39" s="39" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="40" spans="2:3" ht="3.75" customHeight="1">
       <c r="B40" s="21"/>
     </row>
-    <row r="41" spans="2:3" ht="36">
+    <row r="41" spans="2:3" ht="52.8">
       <c r="B41" s="42" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="42" spans="2:3" ht="3.75" customHeight="1">
@@ -3424,7 +3520,7 @@
     </row>
     <row r="43" spans="2:3">
       <c r="B43" s="39" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="44" spans="2:3" ht="3.75" customHeight="1">
@@ -3432,7 +3528,7 @@
     </row>
     <row r="45" spans="2:3">
       <c r="B45" s="21" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="46" spans="2:3" ht="3.75" customHeight="1">
@@ -3440,15 +3536,15 @@
     </row>
     <row r="47" spans="2:3">
       <c r="B47" s="39" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="48" spans="2:3" ht="3.75" customHeight="1">
       <c r="B48" s="21"/>
     </row>
-    <row r="49" spans="2:2">
-      <c r="B49" s="22" t="s">
-        <v>282</v>
+    <row r="49" spans="2:2" ht="52.8">
+      <c r="B49" s="12" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="50" spans="2:2">
@@ -3462,7 +3558,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF61F339"/>
   </sheetPr>
@@ -3472,7 +3568,7 @@
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3480,19 +3576,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="1.625" customWidth="1"/>
-    <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.875" customWidth="1"/>
-    <col min="5" max="5" width="12.875" customWidth="1"/>
+    <col min="1" max="1" width="1.59765625" customWidth="1"/>
+    <col min="2" max="2" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.8984375" customWidth="1"/>
+    <col min="5" max="5" width="12.8984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="8.25" customHeight="1"/>
@@ -3593,7 +3689,7 @@
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="9" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>23</v>
@@ -3604,10 +3700,10 @@
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="9" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>32</v>
@@ -3615,7 +3711,7 @@
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="9" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>25</v>
@@ -3626,7 +3722,7 @@
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>26</v>
@@ -3637,7 +3733,7 @@
     </row>
     <row r="14" spans="2:5">
       <c r="B14" s="9" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>27</v>
@@ -3648,7 +3744,7 @@
     </row>
     <row r="15" spans="2:5">
       <c r="B15" s="9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>28</v>
@@ -3660,19 +3756,19 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C3" location="개요!A1" display="개요" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="C4" location="'역사 설정'!A1" display="역사 설정" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="C5" location="'구역 설정'!A1" display="구역 설정" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="C6" location="왕실!A1" display="왕실" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="C7" location="'생산 관리부'!A1" display="생산 관리부" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="C8" location="병영!A1" display="병영" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="C9" location="'역병 관리부'!A1" display="역병 관리부" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="C10" location="'사상 교육부'!A1" display="사상 교육부" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="C11" location="'배고픈 돼지들'!A1" display="배고픈 돼지들" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="C12" location="'잿빛 공방'!A1" display="잿빛 공방" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="C13" location="'통곡의 벽'!A1" display="통곡의 벽" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="C14" location="'녹슨 나사들'!A1" display="녹슨 나사들" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="C15" location="'아너킹의 고철장'!A1" display="아너킹의 고철장" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="C3" location="개요!A1" display="개요"/>
+    <hyperlink ref="C4" location="'역사 설정'!A1" display="역사 설정"/>
+    <hyperlink ref="C5" location="'구역 설정'!A1" display="구역 설정"/>
+    <hyperlink ref="C6" location="왕실!A1" display="왕실"/>
+    <hyperlink ref="C7" location="'생산 관리부'!A1" display="생산 관리부"/>
+    <hyperlink ref="C8" location="병영!A1" display="병영"/>
+    <hyperlink ref="C9" location="'역병 관리부'!A1" display="역병 관리부"/>
+    <hyperlink ref="C10" location="'사상 교육부'!A1" display="사상 교육부"/>
+    <hyperlink ref="C11" location="'배고픈 돼지들'!A1" display="배고픈 돼지들"/>
+    <hyperlink ref="C12" location="'잿빛 공방'!A1" display="잿빛 공방"/>
+    <hyperlink ref="C13" location="'통곡의 벽'!A1" display="통곡의 벽"/>
+    <hyperlink ref="C14" location="'녹슨 나사들'!A1" display="녹슨 나사들"/>
+    <hyperlink ref="C15" location="'아너킹의 고철장'!A1" display="아너킹의 고철장"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -3682,7 +3778,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3692,17 +3788,17 @@
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="1.75" style="5" customWidth="1"/>
-    <col min="2" max="2" width="90.25" style="5" customWidth="1"/>
+    <col min="1" max="1" width="1.69921875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="90.19921875" style="5" customWidth="1"/>
     <col min="3" max="3" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2" ht="11.25" customHeight="1"/>
     <row r="2" spans="2:2">
       <c r="B2" s="26" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="2:2" ht="7.35" customHeight="1"/>
@@ -3716,15 +3812,15 @@
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="7.35" customHeight="1">
       <c r="B7" s="21"/>
     </row>
-    <row r="8" spans="2:2" ht="36">
+    <row r="8" spans="2:2" ht="39.6">
       <c r="B8" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="2:2" ht="7.35" customHeight="1">
@@ -3732,13 +3828,13 @@
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="2:2" ht="7.35" customHeight="1"/>
     <row r="12" spans="2:2">
       <c r="B12" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="2:2" ht="7.35" customHeight="1"/>
@@ -3752,7 +3848,7 @@
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="7.35" customHeight="1">
@@ -3808,7 +3904,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3818,17 +3914,17 @@
       <selection activeCell="B12" sqref="B6:B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="1.75" style="5" customWidth="1"/>
-    <col min="2" max="2" width="90.25" style="5" customWidth="1"/>
+    <col min="1" max="1" width="1.69921875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="90.19921875" style="5" customWidth="1"/>
     <col min="3" max="3" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2" ht="11.25" customHeight="1"/>
     <row r="2" spans="2:2">
       <c r="B2" s="26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="2:2" ht="7.35" customHeight="1"/>
@@ -3854,7 +3950,7 @@
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="2:2" s="5" customFormat="1">
@@ -3867,7 +3963,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3877,10 +3973,10 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="1.75" style="5" customWidth="1"/>
-    <col min="2" max="2" width="90.25" style="5" customWidth="1"/>
+    <col min="1" max="1" width="1.69921875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="90.19921875" style="5" customWidth="1"/>
     <col min="3" max="3" width="9" style="5"/>
   </cols>
   <sheetData>
@@ -3973,7 +4069,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3983,10 +4079,10 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="1.75" style="5" customWidth="1"/>
-    <col min="2" max="2" width="90.25" style="5" customWidth="1"/>
+    <col min="1" max="1" width="1.69921875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="90.19921875" style="5" customWidth="1"/>
     <col min="3" max="3" width="9" style="5"/>
   </cols>
   <sheetData>
@@ -4007,7 +4103,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -4017,10 +4113,10 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="1.75" style="5" customWidth="1"/>
-    <col min="2" max="2" width="90.25" style="5" customWidth="1"/>
+    <col min="1" max="1" width="1.69921875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="90.19921875" style="5" customWidth="1"/>
     <col min="3" max="3" width="9" style="5"/>
   </cols>
   <sheetData>
@@ -4041,7 +4137,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -4051,20 +4147,20 @@
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="1.75" style="5" customWidth="1"/>
-    <col min="2" max="2" width="90.25" style="5" customWidth="1"/>
+    <col min="1" max="1" width="1.69921875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="90.19921875" style="5" customWidth="1"/>
     <col min="3" max="3" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="11.25" customHeight="1"/>
     <row r="2" spans="2:3">
       <c r="B2" s="26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="7.35" customHeight="1"/>
@@ -4078,7 +4174,7 @@
     </row>
     <row r="6" spans="2:3">
       <c r="B6" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="7.35" customHeight="1">
@@ -4086,15 +4182,15 @@
     </row>
     <row r="8" spans="2:3">
       <c r="B8" s="22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="7.35" customHeight="1">
       <c r="B9" s="22"/>
     </row>
-    <row r="10" spans="2:3" ht="24">
+    <row r="10" spans="2:3" ht="26.4">
       <c r="B10" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="7.35" customHeight="1"/>
@@ -4108,7 +4204,7 @@
     </row>
     <row r="14" spans="2:3">
       <c r="B14" s="29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -4118,7 +4214,7 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -4128,20 +4224,20 @@
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="1.75" style="5" customWidth="1"/>
-    <col min="2" max="2" width="90.25" style="5" customWidth="1"/>
+    <col min="1" max="1" width="1.69921875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="90.19921875" style="5" customWidth="1"/>
     <col min="3" max="3" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="11.25" customHeight="1"/>
     <row r="2" spans="2:3">
       <c r="B2" s="26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="7.35" customHeight="1"/>
@@ -4155,7 +4251,7 @@
     </row>
     <row r="6" spans="2:3">
       <c r="B6" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="7.35" customHeight="1">
@@ -4163,7 +4259,7 @@
     </row>
     <row r="8" spans="2:3">
       <c r="B8" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="7.35" customHeight="1">
@@ -4171,7 +4267,7 @@
     </row>
     <row r="10" spans="2:3">
       <c r="B10" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="7.35" customHeight="1"/>
@@ -4239,17 +4335,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="1.875" customWidth="1"/>
-    <col min="2" max="2" width="96.125" customWidth="1"/>
+    <col min="1" max="1" width="1.8984375" customWidth="1"/>
+    <col min="2" max="2" width="96.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="10.5" customHeight="1">
@@ -4539,32 +4635,32 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="2.125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="106.125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="2.09765625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="106.09765625" style="10" customWidth="1"/>
     <col min="3" max="3" width="9" style="10"/>
     <col min="4" max="9" width="9" style="11"/>
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2" ht="9.75" customHeight="1"/>
-    <row r="2" spans="2:2" ht="16.5">
+    <row r="2" spans="2:2" ht="17.399999999999999">
       <c r="B2" s="24" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="2:2" ht="16.5">
+    <row r="3" spans="2:2" ht="17.399999999999999">
       <c r="B3" s="14"/>
     </row>
-    <row r="4" spans="2:2" ht="13.5">
+    <row r="4" spans="2:2" ht="15.6">
       <c r="B4" s="18" t="s">
         <v>69</v>
       </c>
@@ -4578,7 +4674,7 @@
     <row r="7" spans="2:2" ht="7.5" customHeight="1">
       <c r="B7" s="12"/>
     </row>
-    <row r="8" spans="2:2" ht="24">
+    <row r="8" spans="2:2" ht="26.4">
       <c r="B8" s="12" t="s">
         <v>59</v>
       </c>
@@ -4594,7 +4690,7 @@
     <row r="11" spans="2:2" ht="7.5" customHeight="1">
       <c r="B11" s="13"/>
     </row>
-    <row r="12" spans="2:2" ht="24">
+    <row r="12" spans="2:2" ht="26.4">
       <c r="B12" s="12" t="s">
         <v>58</v>
       </c>
@@ -4618,7 +4714,7 @@
     <row r="17" spans="2:2" ht="7.5" customHeight="1">
       <c r="B17" s="12"/>
     </row>
-    <row r="18" spans="2:2" ht="24">
+    <row r="18" spans="2:2" ht="26.4">
       <c r="B18" s="13" t="s">
         <v>33</v>
       </c>
@@ -4626,7 +4722,7 @@
     <row r="19" spans="2:2" ht="7.5" customHeight="1">
       <c r="B19" s="13"/>
     </row>
-    <row r="20" spans="2:2" ht="24">
+    <row r="20" spans="2:2" ht="26.4">
       <c r="B20" s="13" t="s">
         <v>34</v>
       </c>
@@ -4639,7 +4735,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="2:2" ht="13.5">
+    <row r="24" spans="2:2" ht="15.6">
       <c r="B24" s="18" t="s">
         <v>76</v>
       </c>
@@ -4671,7 +4767,7 @@
     <row r="31" spans="2:2" ht="7.5" customHeight="1">
       <c r="B31" s="13"/>
     </row>
-    <row r="32" spans="2:2" ht="13.5">
+    <row r="32" spans="2:2" ht="15.6">
       <c r="B32" s="17" t="s">
         <v>61</v>
       </c>
@@ -4679,7 +4775,7 @@
     <row r="33" spans="2:2" ht="7.5" customHeight="1">
       <c r="B33" s="20"/>
     </row>
-    <row r="34" spans="2:2" ht="24">
+    <row r="34" spans="2:2" ht="26.4">
       <c r="B34" s="13" t="s">
         <v>35</v>
       </c>
@@ -4713,7 +4809,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="2:2" ht="13.5">
+    <row r="42" spans="2:2" ht="15.6">
       <c r="B42" s="17" t="s">
         <v>62</v>
       </c>
@@ -4747,7 +4843,7 @@
     </row>
     <row r="50" spans="2:3">
       <c r="B50" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="51" spans="2:3" ht="7.5" customHeight="1">
@@ -4761,23 +4857,23 @@
     <row r="53" spans="2:3" ht="7.5" customHeight="1">
       <c r="B53" s="12"/>
     </row>
-    <row r="54" spans="2:3" ht="24">
+    <row r="54" spans="2:3" ht="26.4">
       <c r="B54" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="55" spans="2:3" ht="7.5" customHeight="1">
       <c r="B55" s="13"/>
     </row>
-    <row r="56" spans="2:3" ht="24">
+    <row r="56" spans="2:3" ht="26.4">
       <c r="B56" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="57" spans="2:3" ht="7.5" customHeight="1">
       <c r="B57" s="13"/>
     </row>
-    <row r="58" spans="2:3" ht="24">
+    <row r="58" spans="2:3" ht="26.4">
       <c r="B58" s="12" t="s">
         <v>51</v>
       </c>
@@ -4790,7 +4886,7 @@
         <v>52</v>
       </c>
       <c r="C60" s="34" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="61" spans="2:3" ht="7.5" customHeight="1">
@@ -4820,7 +4916,7 @@
     <row r="67" spans="2:2" ht="7.5" customHeight="1">
       <c r="B67" s="12"/>
     </row>
-    <row r="68" spans="2:2" ht="24">
+    <row r="68" spans="2:2" ht="26.4">
       <c r="B68" s="12" t="s">
         <v>55</v>
       </c>
@@ -4848,17 +4944,17 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="1.75" style="5" customWidth="1"/>
-    <col min="2" max="2" width="90.25" style="5" customWidth="1"/>
+    <col min="1" max="1" width="1.69921875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="90.19921875" style="5" customWidth="1"/>
     <col min="3" max="3" width="9" style="5"/>
   </cols>
   <sheetData>
@@ -4887,7 +4983,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF61F339"/>
   </sheetPr>
@@ -4897,7 +4993,7 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4905,17 +5001,17 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="1.75" style="5" customWidth="1"/>
-    <col min="2" max="2" width="90.25" style="5" customWidth="1"/>
+    <col min="1" max="1" width="1.69921875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="90.19921875" style="5" customWidth="1"/>
     <col min="3" max="3" width="9" style="5"/>
   </cols>
   <sheetData>
@@ -4952,7 +5048,7 @@
     </row>
     <row r="10" spans="2:2" ht="13.5" customHeight="1">
       <c r="B10" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="2:2" ht="7.35" customHeight="1">
@@ -4974,7 +5070,7 @@
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="29" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="7.35" customHeight="1">
@@ -4982,17 +5078,17 @@
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="6" customHeight="1">
@@ -5000,32 +5096,32 @@
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="2:2" ht="4.5" customHeight="1">
@@ -5033,7 +5129,7 @@
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="30" spans="2:2" ht="5.25" customHeight="1">
@@ -5041,17 +5137,17 @@
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32" spans="2:2" s="5" customFormat="1">
       <c r="B32" s="21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -5061,17 +5157,17 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="1.75" style="5" customWidth="1"/>
-    <col min="2" max="2" width="90.25" style="5" customWidth="1"/>
+    <col min="1" max="1" width="1.69921875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="90.19921875" style="5" customWidth="1"/>
     <col min="3" max="3" width="9" style="5"/>
   </cols>
   <sheetData>
@@ -5092,7 +5188,7 @@
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="21" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="7.35" customHeight="1">
@@ -5122,7 +5218,7 @@
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="2:2" ht="7.35" customHeight="1">
@@ -5130,17 +5226,17 @@
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="2:2" ht="6.75" customHeight="1">
@@ -5148,7 +5244,7 @@
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="6.75" customHeight="1">
@@ -5156,64 +5252,64 @@
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="2:2" ht="6" customHeight="1"/>
     <row r="31" spans="2:2">
       <c r="B31" s="29" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="32" spans="2:2" ht="8.25" customHeight="1"/>
     <row r="33" spans="2:2">
       <c r="B33" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -5223,7 +5319,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF61F339"/>
   </sheetPr>
@@ -5231,7 +5327,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DesignDocs/Design/발주 문서/0811-2017_세계관 통합 문서.xlsx
+++ b/DesignDocs/Design/발주 문서/0811-2017_세계관 통합 문서.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\Design\발주 문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0324C745-5628-444F-B810-6579E78452C0}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12396" firstSheet="9" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Log" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
     <sheet name="생산 관리부" sheetId="7" r:id="rId8"/>
     <sheet name="중층" sheetId="26" r:id="rId9"/>
     <sheet name="병영" sheetId="9" r:id="rId10"/>
-    <sheet name="역병 관리부" sheetId="10" r:id="rId11"/>
+    <sheet name="역병 연구소" sheetId="10" r:id="rId11"/>
     <sheet name="사상 교육부" sheetId="12" r:id="rId12"/>
     <sheet name="하층" sheetId="27" r:id="rId13"/>
     <sheet name="검은증기연합" sheetId="13" r:id="rId14"/>
@@ -1379,7 +1380,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
@@ -1786,7 +1787,7 @@
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1830,7 +1831,7 @@
         <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2121,19 +2122,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="1.5" customWidth="1"/>
-    <col min="2" max="2" width="16.09765625" customWidth="1"/>
-    <col min="3" max="3" width="12.09765625" customWidth="1"/>
-    <col min="4" max="4" width="34.69921875" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="12.125" customWidth="1"/>
+    <col min="4" max="4" width="34.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="6.75" customHeight="1"/>
@@ -2200,17 +2201,17 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="1.69921875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="90.19921875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="1.75" style="5" customWidth="1"/>
+    <col min="2" max="2" width="90.25" style="5" customWidth="1"/>
     <col min="3" max="3" width="9" style="5"/>
   </cols>
   <sheetData>
@@ -2327,17 +2328,17 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="1.69921875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="90.19921875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="1.75" style="5" customWidth="1"/>
+    <col min="2" max="2" width="90.25" style="5" customWidth="1"/>
     <col min="3" max="3" width="9" style="5"/>
   </cols>
   <sheetData>
@@ -2523,7 +2524,7 @@
     <row r="45" spans="2:2" ht="3.75" customHeight="1">
       <c r="B45" s="21"/>
     </row>
-    <row r="46" spans="2:2" ht="92.4">
+    <row r="46" spans="2:2" ht="84">
       <c r="B46" s="42" t="s">
         <v>285</v>
       </c>
@@ -2539,7 +2540,7 @@
     <row r="49" spans="2:2" ht="3.75" customHeight="1">
       <c r="B49" s="21"/>
     </row>
-    <row r="50" spans="2:2" ht="79.2">
+    <row r="50" spans="2:2" ht="72">
       <c r="B50" s="42" t="s">
         <v>288</v>
       </c>
@@ -2555,7 +2556,7 @@
     <row r="53" spans="2:2" ht="3.75" customHeight="1">
       <c r="B53" s="21"/>
     </row>
-    <row r="54" spans="2:2" ht="52.8">
+    <row r="54" spans="2:2" ht="48">
       <c r="B54" s="12" t="s">
         <v>289</v>
       </c>
@@ -2567,17 +2568,17 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="1.69921875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="90.19921875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="1.75" style="5" customWidth="1"/>
+    <col min="2" max="2" width="90.25" style="5" customWidth="1"/>
     <col min="3" max="3" width="9" style="5"/>
   </cols>
   <sheetData>
@@ -2724,12 +2725,12 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF61F339"/>
   </sheetPr>
@@ -2739,7 +2740,7 @@
       <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2747,17 +2748,17 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="1.69921875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="90.19921875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="1.75" style="5" customWidth="1"/>
+    <col min="2" max="2" width="90.25" style="5" customWidth="1"/>
     <col min="3" max="3" width="9" style="5"/>
   </cols>
   <sheetData>
@@ -2836,7 +2837,7 @@
       </c>
     </row>
     <row r="21" spans="2:2" ht="5.25" customHeight="1"/>
-    <row r="22" spans="2:2" ht="26.4">
+    <row r="22" spans="2:2" ht="24">
       <c r="B22" s="12" t="s">
         <v>107</v>
       </c>
@@ -2844,7 +2845,7 @@
     <row r="23" spans="2:2" ht="3.75" customHeight="1">
       <c r="B23" s="22"/>
     </row>
-    <row r="24" spans="2:2" ht="52.8">
+    <row r="24" spans="2:2" ht="48">
       <c r="B24" s="12" t="s">
         <v>108</v>
       </c>
@@ -2868,7 +2869,7 @@
     <row r="29" spans="2:2" ht="3" customHeight="1">
       <c r="B29" s="21"/>
     </row>
-    <row r="30" spans="2:2" s="5" customFormat="1" ht="39.6">
+    <row r="30" spans="2:2" s="5" customFormat="1" ht="36">
       <c r="B30" s="12" t="s">
         <v>221</v>
       </c>
@@ -2894,17 +2895,17 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="1.69921875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="90.19921875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="1.75" style="5" customWidth="1"/>
+    <col min="2" max="2" width="90.25" style="5" customWidth="1"/>
     <col min="3" max="3" width="9" style="5"/>
   </cols>
   <sheetData>
@@ -2939,7 +2940,7 @@
     <row r="9" spans="2:2" s="5" customFormat="1" ht="7.35" customHeight="1">
       <c r="B9" s="28"/>
     </row>
-    <row r="10" spans="2:2" ht="66">
+    <row r="10" spans="2:2" ht="60">
       <c r="B10" s="12" t="s">
         <v>116</v>
       </c>
@@ -2977,7 +2978,7 @@
     <row r="19" spans="2:2" ht="5.25" customHeight="1">
       <c r="B19" s="22"/>
     </row>
-    <row r="20" spans="2:2" ht="26.4">
+    <row r="20" spans="2:2" ht="24">
       <c r="B20" s="12" t="s">
         <v>227</v>
       </c>
@@ -3032,7 +3033,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="35" spans="2:2" ht="26.4">
+    <row r="35" spans="2:2" ht="24">
       <c r="B35" s="33" t="s">
         <v>267</v>
       </c>
@@ -3042,7 +3043,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="37" spans="2:2" ht="26.4">
+    <row r="37" spans="2:2" ht="24">
       <c r="B37" s="33" t="s">
         <v>269</v>
       </c>
@@ -3064,17 +3065,17 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="1.69921875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="90.19921875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="1.75" style="5" customWidth="1"/>
+    <col min="2" max="2" width="90.25" style="5" customWidth="1"/>
     <col min="3" max="3" width="9" style="5"/>
   </cols>
   <sheetData>
@@ -3101,7 +3102,7 @@
     <row r="7" spans="2:2" ht="7.35" customHeight="1">
       <c r="B7" s="21"/>
     </row>
-    <row r="8" spans="2:2" ht="26.4">
+    <row r="8" spans="2:2" ht="24">
       <c r="B8" s="12" t="s">
         <v>118</v>
       </c>
@@ -3208,17 +3209,17 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="1.69921875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="90.19921875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="1.75" style="5" customWidth="1"/>
+    <col min="2" max="2" width="90.25" style="5" customWidth="1"/>
     <col min="3" max="3" width="9" style="5"/>
   </cols>
   <sheetData>
@@ -3347,17 +3348,17 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:XFD49"/>
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="1.69921875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="90.19921875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="1.75" style="5" customWidth="1"/>
+    <col min="2" max="2" width="90.25" style="5" customWidth="1"/>
     <col min="3" max="3" width="9" style="5"/>
   </cols>
   <sheetData>
@@ -3422,7 +3423,7 @@
     <row r="17" spans="2:2" ht="5.25" customHeight="1">
       <c r="B17" s="21"/>
     </row>
-    <row r="18" spans="2:2" ht="39.6">
+    <row r="18" spans="2:2" ht="36">
       <c r="B18" s="45" t="s">
         <v>275</v>
       </c>
@@ -3510,7 +3511,7 @@
     <row r="40" spans="2:3" ht="3.75" customHeight="1">
       <c r="B40" s="21"/>
     </row>
-    <row r="41" spans="2:3" ht="52.8">
+    <row r="41" spans="2:3" ht="48">
       <c r="B41" s="42" t="s">
         <v>279</v>
       </c>
@@ -3542,7 +3543,7 @@
     <row r="48" spans="2:3" ht="3.75" customHeight="1">
       <c r="B48" s="21"/>
     </row>
-    <row r="49" spans="2:2" ht="52.8">
+    <row r="49" spans="2:2" ht="48">
       <c r="B49" s="12" t="s">
         <v>278</v>
       </c>
@@ -3558,7 +3559,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <sheetPr>
     <tabColor rgb="FF61F339"/>
   </sheetPr>
@@ -3568,7 +3569,7 @@
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3576,19 +3577,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="1.59765625" customWidth="1"/>
-    <col min="2" max="2" width="9.8984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.8984375" customWidth="1"/>
-    <col min="5" max="5" width="12.8984375" customWidth="1"/>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
+    <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.875" customWidth="1"/>
+    <col min="5" max="5" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="8.25" customHeight="1"/>
@@ -3756,19 +3757,19 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C3" location="개요!A1" display="개요"/>
-    <hyperlink ref="C4" location="'역사 설정'!A1" display="역사 설정"/>
-    <hyperlink ref="C5" location="'구역 설정'!A1" display="구역 설정"/>
-    <hyperlink ref="C6" location="왕실!A1" display="왕실"/>
-    <hyperlink ref="C7" location="'생산 관리부'!A1" display="생산 관리부"/>
-    <hyperlink ref="C8" location="병영!A1" display="병영"/>
-    <hyperlink ref="C9" location="'역병 관리부'!A1" display="역병 관리부"/>
-    <hyperlink ref="C10" location="'사상 교육부'!A1" display="사상 교육부"/>
-    <hyperlink ref="C11" location="'배고픈 돼지들'!A1" display="배고픈 돼지들"/>
-    <hyperlink ref="C12" location="'잿빛 공방'!A1" display="잿빛 공방"/>
-    <hyperlink ref="C13" location="'통곡의 벽'!A1" display="통곡의 벽"/>
-    <hyperlink ref="C14" location="'녹슨 나사들'!A1" display="녹슨 나사들"/>
-    <hyperlink ref="C15" location="'아너킹의 고철장'!A1" display="아너킹의 고철장"/>
+    <hyperlink ref="C3" location="개요!A1" display="개요" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="C4" location="'역사 설정'!A1" display="역사 설정" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="C5" location="'구역 설정'!A1" display="구역 설정" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="C6" location="왕실!A1" display="왕실" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="C7" location="'생산 관리부'!A1" display="생산 관리부" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="C8" location="병영!A1" display="병영" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="C9" location="'역병 관리부'!A1" display="역병 관리부" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="C10" location="'사상 교육부'!A1" display="사상 교육부" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="C11" location="'배고픈 돼지들'!A1" display="배고픈 돼지들" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="C12" location="'잿빛 공방'!A1" display="잿빛 공방" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="C13" location="'통곡의 벽'!A1" display="통곡의 벽" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="C14" location="'녹슨 나사들'!A1" display="녹슨 나사들" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="C15" location="'아너킹의 고철장'!A1" display="아너킹의 고철장" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -3778,7 +3779,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3788,10 +3789,10 @@
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="1.69921875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="90.19921875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="1.75" style="5" customWidth="1"/>
+    <col min="2" max="2" width="90.25" style="5" customWidth="1"/>
     <col min="3" max="3" width="9" style="5"/>
   </cols>
   <sheetData>
@@ -3818,7 +3819,7 @@
     <row r="7" spans="2:2" ht="7.35" customHeight="1">
       <c r="B7" s="21"/>
     </row>
-    <row r="8" spans="2:2" ht="39.6">
+    <row r="8" spans="2:2" ht="36">
       <c r="B8" s="12" t="s">
         <v>120</v>
       </c>
@@ -3904,7 +3905,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3914,10 +3915,10 @@
       <selection activeCell="B12" sqref="B6:B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="1.69921875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="90.19921875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="1.75" style="5" customWidth="1"/>
+    <col min="2" max="2" width="90.25" style="5" customWidth="1"/>
     <col min="3" max="3" width="9" style="5"/>
   </cols>
   <sheetData>
@@ -3963,7 +3964,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3973,10 +3974,10 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="1.69921875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="90.19921875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="1.75" style="5" customWidth="1"/>
+    <col min="2" max="2" width="90.25" style="5" customWidth="1"/>
     <col min="3" max="3" width="9" style="5"/>
   </cols>
   <sheetData>
@@ -4069,7 +4070,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -4079,10 +4080,10 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="1.69921875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="90.19921875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="1.75" style="5" customWidth="1"/>
+    <col min="2" max="2" width="90.25" style="5" customWidth="1"/>
     <col min="3" max="3" width="9" style="5"/>
   </cols>
   <sheetData>
@@ -4103,7 +4104,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -4113,10 +4114,10 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="1.69921875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="90.19921875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="1.75" style="5" customWidth="1"/>
+    <col min="2" max="2" width="90.25" style="5" customWidth="1"/>
     <col min="3" max="3" width="9" style="5"/>
   </cols>
   <sheetData>
@@ -4137,7 +4138,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -4147,10 +4148,10 @@
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="1.69921875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="90.19921875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="1.75" style="5" customWidth="1"/>
+    <col min="2" max="2" width="90.25" style="5" customWidth="1"/>
     <col min="3" max="3" width="9" style="5"/>
   </cols>
   <sheetData>
@@ -4188,7 +4189,7 @@
     <row r="9" spans="2:3" ht="7.35" customHeight="1">
       <c r="B9" s="22"/>
     </row>
-    <row r="10" spans="2:3" ht="26.4">
+    <row r="10" spans="2:3" ht="24">
       <c r="B10" s="12" t="s">
         <v>112</v>
       </c>
@@ -4214,7 +4215,7 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -4224,10 +4225,10 @@
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="1.69921875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="90.19921875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="1.75" style="5" customWidth="1"/>
+    <col min="2" max="2" width="90.25" style="5" customWidth="1"/>
     <col min="3" max="3" width="9" style="5"/>
   </cols>
   <sheetData>
@@ -4335,17 +4336,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="1.8984375" customWidth="1"/>
-    <col min="2" max="2" width="96.09765625" customWidth="1"/>
+    <col min="1" max="1" width="1.875" customWidth="1"/>
+    <col min="2" max="2" width="96.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="10.5" customHeight="1">
@@ -4635,32 +4636,32 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="2.09765625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="106.09765625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="2.125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="106.125" style="10" customWidth="1"/>
     <col min="3" max="3" width="9" style="10"/>
     <col min="4" max="9" width="9" style="11"/>
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2" ht="9.75" customHeight="1"/>
-    <row r="2" spans="2:2" ht="17.399999999999999">
+    <row r="2" spans="2:2" ht="16.5">
       <c r="B2" s="24" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="2:2" ht="17.399999999999999">
+    <row r="3" spans="2:2" ht="16.5">
       <c r="B3" s="14"/>
     </row>
-    <row r="4" spans="2:2" ht="15.6">
+    <row r="4" spans="2:2" ht="13.5">
       <c r="B4" s="18" t="s">
         <v>69</v>
       </c>
@@ -4674,7 +4675,7 @@
     <row r="7" spans="2:2" ht="7.5" customHeight="1">
       <c r="B7" s="12"/>
     </row>
-    <row r="8" spans="2:2" ht="26.4">
+    <row r="8" spans="2:2" ht="24">
       <c r="B8" s="12" t="s">
         <v>59</v>
       </c>
@@ -4690,7 +4691,7 @@
     <row r="11" spans="2:2" ht="7.5" customHeight="1">
       <c r="B11" s="13"/>
     </row>
-    <row r="12" spans="2:2" ht="26.4">
+    <row r="12" spans="2:2" ht="24">
       <c r="B12" s="12" t="s">
         <v>58</v>
       </c>
@@ -4714,7 +4715,7 @@
     <row r="17" spans="2:2" ht="7.5" customHeight="1">
       <c r="B17" s="12"/>
     </row>
-    <row r="18" spans="2:2" ht="26.4">
+    <row r="18" spans="2:2" ht="24">
       <c r="B18" s="13" t="s">
         <v>33</v>
       </c>
@@ -4722,7 +4723,7 @@
     <row r="19" spans="2:2" ht="7.5" customHeight="1">
       <c r="B19" s="13"/>
     </row>
-    <row r="20" spans="2:2" ht="26.4">
+    <row r="20" spans="2:2" ht="24">
       <c r="B20" s="13" t="s">
         <v>34</v>
       </c>
@@ -4735,7 +4736,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="2:2" ht="15.6">
+    <row r="24" spans="2:2" ht="13.5">
       <c r="B24" s="18" t="s">
         <v>76</v>
       </c>
@@ -4767,7 +4768,7 @@
     <row r="31" spans="2:2" ht="7.5" customHeight="1">
       <c r="B31" s="13"/>
     </row>
-    <row r="32" spans="2:2" ht="15.6">
+    <row r="32" spans="2:2" ht="13.5">
       <c r="B32" s="17" t="s">
         <v>61</v>
       </c>
@@ -4775,7 +4776,7 @@
     <row r="33" spans="2:2" ht="7.5" customHeight="1">
       <c r="B33" s="20"/>
     </row>
-    <row r="34" spans="2:2" ht="26.4">
+    <row r="34" spans="2:2" ht="24">
       <c r="B34" s="13" t="s">
         <v>35</v>
       </c>
@@ -4809,7 +4810,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="2:2" ht="15.6">
+    <row r="42" spans="2:2" ht="13.5">
       <c r="B42" s="17" t="s">
         <v>62</v>
       </c>
@@ -4857,7 +4858,7 @@
     <row r="53" spans="2:3" ht="7.5" customHeight="1">
       <c r="B53" s="12"/>
     </row>
-    <row r="54" spans="2:3" ht="26.4">
+    <row r="54" spans="2:3" ht="24">
       <c r="B54" s="12" t="s">
         <v>103</v>
       </c>
@@ -4865,7 +4866,7 @@
     <row r="55" spans="2:3" ht="7.5" customHeight="1">
       <c r="B55" s="13"/>
     </row>
-    <row r="56" spans="2:3" ht="26.4">
+    <row r="56" spans="2:3" ht="24">
       <c r="B56" s="12" t="s">
         <v>104</v>
       </c>
@@ -4873,7 +4874,7 @@
     <row r="57" spans="2:3" ht="7.5" customHeight="1">
       <c r="B57" s="13"/>
     </row>
-    <row r="58" spans="2:3" ht="26.4">
+    <row r="58" spans="2:3" ht="24">
       <c r="B58" s="12" t="s">
         <v>51</v>
       </c>
@@ -4916,7 +4917,7 @@
     <row r="67" spans="2:2" ht="7.5" customHeight="1">
       <c r="B67" s="12"/>
     </row>
-    <row r="68" spans="2:2" ht="26.4">
+    <row r="68" spans="2:2" ht="24">
       <c r="B68" s="12" t="s">
         <v>55</v>
       </c>
@@ -4944,17 +4945,17 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="1.69921875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="90.19921875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="1.75" style="5" customWidth="1"/>
+    <col min="2" max="2" width="90.25" style="5" customWidth="1"/>
     <col min="3" max="3" width="9" style="5"/>
   </cols>
   <sheetData>
@@ -4983,7 +4984,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor rgb="FF61F339"/>
   </sheetPr>
@@ -4993,7 +4994,7 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5001,17 +5002,17 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="1.69921875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="90.19921875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="1.75" style="5" customWidth="1"/>
+    <col min="2" max="2" width="90.25" style="5" customWidth="1"/>
     <col min="3" max="3" width="9" style="5"/>
   </cols>
   <sheetData>
@@ -5157,17 +5158,17 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="1.69921875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="90.19921875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="1.75" style="5" customWidth="1"/>
+    <col min="2" max="2" width="90.25" style="5" customWidth="1"/>
     <col min="3" max="3" width="9" style="5"/>
   </cols>
   <sheetData>
@@ -5319,7 +5320,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor rgb="FF61F339"/>
   </sheetPr>
@@ -5327,7 +5328,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DesignDocs/Design/발주 문서/0811-2017_세계관 통합 문서.xlsx
+++ b/DesignDocs/Design/발주 문서/0811-2017_세계관 통합 문서.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\Design\발주 문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0324C745-5628-444F-B810-6579E78452C0}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{423AEE18-4BD2-4DB8-BB84-A8DE984C70E7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" firstSheet="6" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Log" sheetId="1" r:id="rId1"/>
@@ -26,10 +26,10 @@
     <sheet name="역병 연구소" sheetId="10" r:id="rId11"/>
     <sheet name="사상 교육부" sheetId="12" r:id="rId12"/>
     <sheet name="하층" sheetId="27" r:id="rId13"/>
-    <sheet name="검은증기연합" sheetId="13" r:id="rId14"/>
-    <sheet name="잿빛 공방" sheetId="15" r:id="rId15"/>
-    <sheet name="통곡의 벽" sheetId="16" r:id="rId16"/>
-    <sheet name="녹슨 나사들" sheetId="18" r:id="rId17"/>
+    <sheet name="잿빛 공방" sheetId="15" r:id="rId14"/>
+    <sheet name="통곡의 벽" sheetId="16" r:id="rId15"/>
+    <sheet name="녹슨 나사들" sheetId="18" r:id="rId16"/>
+    <sheet name="검은증기연합" sheetId="13" r:id="rId17"/>
     <sheet name="아너킹의 고철장" sheetId="19" r:id="rId18"/>
     <sheet name="폐기" sheetId="24" r:id="rId19"/>
     <sheet name="검은 증기 연합" sheetId="17" r:id="rId20"/>
@@ -2331,7 +2331,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
@@ -2748,6 +2748,459 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <dimension ref="A1:C40"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="1.75" style="5" customWidth="1"/>
+    <col min="2" max="2" width="90.25" style="5" customWidth="1"/>
+    <col min="3" max="3" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" ht="11.25" customHeight="1"/>
+    <row r="2" spans="2:2">
+      <c r="B2" s="26" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" ht="7.35" customHeight="1"/>
+    <row r="4" spans="2:2">
+      <c r="B4" s="27" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" s="5" customFormat="1" ht="6.75" customHeight="1">
+      <c r="B5" s="28"/>
+    </row>
+    <row r="6" spans="2:2" s="5" customFormat="1">
+      <c r="B6" s="22" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" ht="5.25" customHeight="1">
+      <c r="B7" s="35"/>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" s="32" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" s="5" customFormat="1" ht="7.35" customHeight="1">
+      <c r="B9" s="28"/>
+    </row>
+    <row r="10" spans="2:2" ht="60">
+      <c r="B10" s="12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" ht="7.35" customHeight="1"/>
+    <row r="12" spans="2:2">
+      <c r="B12" s="27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" ht="7.35" customHeight="1">
+      <c r="B13" s="10"/>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="29" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" ht="7.35" customHeight="1">
+      <c r="B15" s="28"/>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="21" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="6" customHeight="1">
+      <c r="B17" s="21"/>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="22" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="5.25" customHeight="1">
+      <c r="B19" s="22"/>
+    </row>
+    <row r="20" spans="2:2" ht="24">
+      <c r="B20" s="12" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" ht="7.5" customHeight="1">
+      <c r="B21" s="10"/>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="29" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" ht="6.75" customHeight="1">
+      <c r="B23" s="10"/>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="21" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" ht="3.75" customHeight="1">
+      <c r="B25" s="21"/>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" ht="4.5" customHeight="1">
+      <c r="B27" s="22"/>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" ht="4.5" customHeight="1"/>
+    <row r="30" spans="2:2" s="5" customFormat="1">
+      <c r="B30" s="22" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" ht="7.5" customHeight="1"/>
+    <row r="32" spans="2:2">
+      <c r="B32" s="29" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" ht="6.75" customHeight="1"/>
+    <row r="34" spans="2:2">
+      <c r="B34" s="37" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" ht="24">
+      <c r="B35" s="33" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="38" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" ht="24">
+      <c r="B37" s="33" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="31"/>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="31"/>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="31"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <dimension ref="A1:C32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="1.75" style="5" customWidth="1"/>
+    <col min="2" max="2" width="90.25" style="5" customWidth="1"/>
+    <col min="3" max="3" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" ht="11.25" customHeight="1"/>
+    <row r="2" spans="2:2">
+      <c r="B2" s="26" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" ht="7.35" customHeight="1"/>
+    <row r="4" spans="2:2">
+      <c r="B4" s="27" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" s="5" customFormat="1" ht="7.35" customHeight="1">
+      <c r="B5" s="28"/>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="21" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" ht="7.35" customHeight="1">
+      <c r="B7" s="21"/>
+    </row>
+    <row r="8" spans="2:2" ht="24">
+      <c r="B8" s="12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" ht="7.35" customHeight="1">
+      <c r="B9" s="22"/>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" ht="7.35" customHeight="1"/>
+    <row r="12" spans="2:2">
+      <c r="B12" s="27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" ht="7.35" customHeight="1">
+      <c r="B13" s="10"/>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="29" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" ht="4.5" customHeight="1">
+      <c r="B15" s="10"/>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="21" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="21" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="8.25" customHeight="1">
+      <c r="B18" s="10"/>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="29" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" ht="4.5" customHeight="1">
+      <c r="B20" s="10"/>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="21" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="21" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="21" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" ht="7.5" customHeight="1">
+      <c r="B24" s="10"/>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="29" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" ht="4.5" customHeight="1">
+      <c r="B26" s="10"/>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="21" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="21" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="10"/>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="10"/>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="10"/>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <dimension ref="A1:C32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="1.75" style="5" customWidth="1"/>
+    <col min="2" max="2" width="90.25" style="5" customWidth="1"/>
+    <col min="3" max="3" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" ht="11.25" customHeight="1"/>
+    <row r="2" spans="2:2">
+      <c r="B2" s="30" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="27" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" s="5" customFormat="1" ht="7.35" customHeight="1">
+      <c r="B5" s="28"/>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="21" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" ht="7.35" customHeight="1">
+      <c r="B7" s="21"/>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" s="12" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" ht="7.35" customHeight="1">
+      <c r="B9" s="22"/>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="22" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" ht="7.35" customHeight="1"/>
+    <row r="12" spans="2:2">
+      <c r="B12" s="27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" ht="7.35" customHeight="1">
+      <c r="B13" s="10"/>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="29" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" ht="5.25" customHeight="1"/>
+    <row r="16" spans="2:2">
+      <c r="B16" s="21" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="21" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="21" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="6" customHeight="1">
+      <c r="B19" s="10"/>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="29" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" ht="3.75" customHeight="1"/>
+    <row r="22" spans="2:2">
+      <c r="B22" s="21" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="21" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="21" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" ht="5.25" customHeight="1">
+      <c r="B25" s="10"/>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="29" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" ht="4.5" customHeight="1"/>
+    <row r="28" spans="2:2">
+      <c r="B28" s="21" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="21" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="10"/>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="10"/>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:C34"/>
   <sheetViews>
@@ -2891,459 +3344,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:C40"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="1.75" style="5" customWidth="1"/>
-    <col min="2" max="2" width="90.25" style="5" customWidth="1"/>
-    <col min="3" max="3" width="9" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:2" ht="11.25" customHeight="1"/>
-    <row r="2" spans="2:2">
-      <c r="B2" s="26" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" ht="7.35" customHeight="1"/>
-    <row r="4" spans="2:2">
-      <c r="B4" s="27" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" s="5" customFormat="1" ht="6.75" customHeight="1">
-      <c r="B5" s="28"/>
-    </row>
-    <row r="6" spans="2:2" s="5" customFormat="1">
-      <c r="B6" s="22" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" ht="5.25" customHeight="1">
-      <c r="B7" s="35"/>
-    </row>
-    <row r="8" spans="2:2">
-      <c r="B8" s="32" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" s="5" customFormat="1" ht="7.35" customHeight="1">
-      <c r="B9" s="28"/>
-    </row>
-    <row r="10" spans="2:2" ht="60">
-      <c r="B10" s="12" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" ht="7.35" customHeight="1"/>
-    <row r="12" spans="2:2">
-      <c r="B12" s="27" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" ht="7.35" customHeight="1">
-      <c r="B13" s="10"/>
-    </row>
-    <row r="14" spans="2:2">
-      <c r="B14" s="29" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2" ht="7.35" customHeight="1">
-      <c r="B15" s="28"/>
-    </row>
-    <row r="16" spans="2:2">
-      <c r="B16" s="21" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" ht="6" customHeight="1">
-      <c r="B17" s="21"/>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="22" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" ht="5.25" customHeight="1">
-      <c r="B19" s="22"/>
-    </row>
-    <row r="20" spans="2:2" ht="24">
-      <c r="B20" s="12" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" ht="7.5" customHeight="1">
-      <c r="B21" s="10"/>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="29" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" ht="6.75" customHeight="1">
-      <c r="B23" s="10"/>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" s="21" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" ht="3.75" customHeight="1">
-      <c r="B25" s="21"/>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" s="22" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" ht="4.5" customHeight="1">
-      <c r="B27" s="22"/>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28" s="22" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" ht="4.5" customHeight="1"/>
-    <row r="30" spans="2:2" s="5" customFormat="1">
-      <c r="B30" s="22" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" ht="7.5" customHeight="1"/>
-    <row r="32" spans="2:2">
-      <c r="B32" s="29" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" ht="6.75" customHeight="1"/>
-    <row r="34" spans="2:2">
-      <c r="B34" s="37" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" ht="24">
-      <c r="B35" s="33" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36" s="38" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" ht="24">
-      <c r="B37" s="33" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2">
-      <c r="B38" s="31"/>
-    </row>
-    <row r="39" spans="2:2">
-      <c r="B39" s="31"/>
-    </row>
-    <row r="40" spans="2:2">
-      <c r="B40" s="31"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:C32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="1.75" style="5" customWidth="1"/>
-    <col min="2" max="2" width="90.25" style="5" customWidth="1"/>
-    <col min="3" max="3" width="9" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:2" ht="11.25" customHeight="1"/>
-    <row r="2" spans="2:2">
-      <c r="B2" s="26" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" ht="7.35" customHeight="1"/>
-    <row r="4" spans="2:2">
-      <c r="B4" s="27" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" s="5" customFormat="1" ht="7.35" customHeight="1">
-      <c r="B5" s="28"/>
-    </row>
-    <row r="6" spans="2:2">
-      <c r="B6" s="21" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" ht="7.35" customHeight="1">
-      <c r="B7" s="21"/>
-    </row>
-    <row r="8" spans="2:2" ht="24">
-      <c r="B8" s="12" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" ht="7.35" customHeight="1">
-      <c r="B9" s="22"/>
-    </row>
-    <row r="10" spans="2:2">
-      <c r="B10" s="12" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" ht="7.35" customHeight="1"/>
-    <row r="12" spans="2:2">
-      <c r="B12" s="27" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" ht="7.35" customHeight="1">
-      <c r="B13" s="10"/>
-    </row>
-    <row r="14" spans="2:2">
-      <c r="B14" s="29" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2" ht="4.5" customHeight="1">
-      <c r="B15" s="10"/>
-    </row>
-    <row r="16" spans="2:2">
-      <c r="B16" s="21" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="21" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" ht="8.25" customHeight="1">
-      <c r="B18" s="10"/>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="29" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" ht="4.5" customHeight="1">
-      <c r="B20" s="10"/>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="21" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="21" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="21" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" ht="7.5" customHeight="1">
-      <c r="B24" s="10"/>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" s="29" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" ht="4.5" customHeight="1">
-      <c r="B26" s="10"/>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" s="21" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28" s="21" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29" s="10"/>
-    </row>
-    <row r="30" spans="2:2">
-      <c r="B30" s="10"/>
-    </row>
-    <row r="31" spans="2:2">
-      <c r="B31" s="10"/>
-    </row>
-    <row r="32" spans="2:2">
-      <c r="B32" s="10"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:C32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="1.75" style="5" customWidth="1"/>
-    <col min="2" max="2" width="90.25" style="5" customWidth="1"/>
-    <col min="3" max="3" width="9" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:2" ht="11.25" customHeight="1"/>
-    <row r="2" spans="2:2">
-      <c r="B2" s="30" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2">
-      <c r="B4" s="27" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" s="5" customFormat="1" ht="7.35" customHeight="1">
-      <c r="B5" s="28"/>
-    </row>
-    <row r="6" spans="2:2">
-      <c r="B6" s="21" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" ht="7.35" customHeight="1">
-      <c r="B7" s="21"/>
-    </row>
-    <row r="8" spans="2:2">
-      <c r="B8" s="12" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" ht="7.35" customHeight="1">
-      <c r="B9" s="22"/>
-    </row>
-    <row r="10" spans="2:2">
-      <c r="B10" s="22" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" ht="7.35" customHeight="1"/>
-    <row r="12" spans="2:2">
-      <c r="B12" s="27" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" ht="7.35" customHeight="1">
-      <c r="B13" s="10"/>
-    </row>
-    <row r="14" spans="2:2">
-      <c r="B14" s="29" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2" ht="5.25" customHeight="1"/>
-    <row r="16" spans="2:2">
-      <c r="B16" s="21" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="21" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="21" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" ht="6" customHeight="1">
-      <c r="B19" s="10"/>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="29" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" ht="3.75" customHeight="1"/>
-    <row r="22" spans="2:2">
-      <c r="B22" s="21" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="21" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" s="21" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" ht="5.25" customHeight="1">
-      <c r="B25" s="10"/>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" s="29" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" ht="4.5" customHeight="1"/>
-    <row r="28" spans="2:2">
-      <c r="B28" s="21" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29" s="21" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2">
-      <c r="B30" s="10"/>
-    </row>
-    <row r="31" spans="2:2">
-      <c r="B31" s="10"/>
-    </row>
-    <row r="32" spans="2:2">
-      <c r="B32" s="10"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
